--- a/data/glycerin_plant_data.xlsx
+++ b/data/glycerin_plant_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\Langara\SEM 4\Capstone\Capstone\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman Shrestha\Documents\Python\capstone-project-sanitized\capstone-project-sanitized\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A76F6D8-EA55-416C-9C99-27577F935059}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB244378-198D-4689-AB05-D33A24AA9FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="304">
   <si>
     <t>Sample time</t>
   </si>
@@ -502,63 +507,6 @@
   </si>
   <si>
     <t>Added new feed at 9:00 PM. Glycerin solution = 34 wt%. Glycerol area = 6201.52</t>
-  </si>
-  <si>
-    <r>
-      <t>Actual H</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Flow Based off of LINDE Skid (g/h)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Pure H</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Gas Flow Setpoint on PLC
-(g/h)</t>
-    </r>
   </si>
   <si>
     <t>didn't save</t>
@@ -1246,6 +1194,66 @@
   </si>
   <si>
     <t>20231030-C3-G1-RX203-227</t>
+  </si>
+  <si>
+    <t>Sample Timestamp</t>
+  </si>
+  <si>
+    <t>Input Flow Rate (L/h)</t>
+  </si>
+  <si>
+    <t>Gas Flow Setpoint (g/h)</t>
+  </si>
+  <si>
+    <t>Actual Gas Flow (g/h)</t>
+  </si>
+  <si>
+    <t>Recycled Gas Flow (g/h)</t>
+  </si>
+  <si>
+    <t>Total Gas Flow (g/h)</t>
+  </si>
+  <si>
+    <t>Gas Purity (%)</t>
+  </si>
+  <si>
+    <t>Analyzer Pressure (psi)</t>
+  </si>
+  <si>
+    <t>Analyzer Pressure Adjustment</t>
+  </si>
+  <si>
+    <t>Analyzer Pressure Before (psi)</t>
+  </si>
+  <si>
+    <t>System Pressure (psig)</t>
+  </si>
+  <si>
+    <t>Temp Sensor 1 (°C)</t>
+  </si>
+  <si>
+    <t>Temp Sensor 2 (°C)</t>
+  </si>
+  <si>
+    <t>Temp Sensor 3 (°C)</t>
+  </si>
+  <si>
+    <t>Temp Sensor 4 (°C)</t>
+  </si>
+  <si>
+    <t>Post-Heat Exchanger Temp (°C)</t>
+  </si>
+  <si>
+    <t>Avg Temperature (°C)</t>
+  </si>
+  <si>
+    <t>Input pH</t>
+  </si>
+  <si>
+    <t>Output pH</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
   </si>
 </sst>
 </file>
@@ -8186,7 +8194,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4DBBAB27-0ABA-498F-BA82-A8617120217F}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="174" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8197,7 +8205,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="5884698" cy="4220560"/>
+    <xdr:ext cx="8668987" cy="6293922"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -8387,9 +8395,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8427,9 +8435,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8462,26 +8470,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8514,26 +8505,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8709,37 +8683,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM591"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A70" sqref="A70"/>
-      <selection pane="topRight" activeCell="AD30" activeCellId="3" sqref="AD55:AD58 AD26 AD24 AD30"/>
+      <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="179" customWidth="1"/>
-    <col min="6" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="96" customWidth="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1"/>
-    <col min="10" max="11" width="16.42578125" style="88" customWidth="1"/>
-    <col min="12" max="16" width="11.7109375" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" style="3" customWidth="1"/>
-    <col min="18" max="23" width="11.7109375" style="4" customWidth="1"/>
-    <col min="24" max="24" width="22.42578125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="29.88671875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="179" customWidth="1"/>
+    <col min="6" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="96" customWidth="1"/>
+    <col min="9" max="9" width="16.44140625" customWidth="1"/>
+    <col min="10" max="11" width="16.44140625" style="88" customWidth="1"/>
+    <col min="12" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" style="3" customWidth="1"/>
+    <col min="18" max="23" width="11.6640625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="22.44140625" style="3" customWidth="1"/>
     <col min="25" max="26" width="20" style="3" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" style="3" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="3" customWidth="1"/>
-    <col min="30" max="32" width="13.85546875" style="50" customWidth="1"/>
-    <col min="33" max="33" width="13.85546875" style="52" customWidth="1"/>
+    <col min="27" max="27" width="14.33203125" style="3" customWidth="1"/>
+    <col min="28" max="29" width="14.6640625" style="3" customWidth="1"/>
+    <col min="30" max="32" width="13.88671875" style="50" customWidth="1"/>
+    <col min="33" max="33" width="13.88671875" style="52" customWidth="1"/>
     <col min="34" max="34" width="140" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="64"/>
       <c r="B1" s="65"/>
       <c r="C1" s="68"/>
@@ -8775,7 +8749,7 @@
       <c r="AG1" s="70"/>
       <c r="AH1" s="67"/>
     </row>
-    <row r="2" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="71" t="s">
         <v>31</v>
       </c>
@@ -8813,7 +8787,7 @@
       <c r="AG2" s="70"/>
       <c r="AH2" s="67"/>
     </row>
-    <row r="3" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="72"/>
       <c r="B3" s="65"/>
       <c r="C3" s="68"/>
@@ -8849,7 +8823,7 @@
       <c r="AG3" s="70"/>
       <c r="AH3" s="67"/>
     </row>
-    <row r="4" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="72"/>
       <c r="B4" s="65"/>
       <c r="C4" s="68"/>
@@ -8885,7 +8859,7 @@
       <c r="AG4" s="70"/>
       <c r="AH4" s="67"/>
     </row>
-    <row r="5" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="67"/>
       <c r="B5" s="65"/>
       <c r="C5" s="68"/>
@@ -8921,7 +8895,7 @@
       <c r="AG5" s="70"/>
       <c r="AH5" s="67"/>
     </row>
-    <row r="6" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="64"/>
       <c r="B6" s="65"/>
       <c r="C6" s="68"/>
@@ -8957,7 +8931,7 @@
       <c r="AG6" s="70"/>
       <c r="AH6" s="67"/>
     </row>
-    <row r="7" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="64"/>
       <c r="B7" s="65"/>
       <c r="C7" s="68"/>
@@ -8993,7 +8967,7 @@
       <c r="AG7" s="70"/>
       <c r="AH7" s="67"/>
     </row>
-    <row r="8" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="64"/>
       <c r="B8" s="65"/>
       <c r="C8" s="68"/>
@@ -9029,7 +9003,7 @@
       <c r="AG8" s="70"/>
       <c r="AH8" s="67"/>
     </row>
-    <row r="9" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="64"/>
       <c r="B9" s="65"/>
       <c r="C9" s="68"/>
@@ -9065,7 +9039,7 @@
       <c r="AG9" s="70"/>
       <c r="AH9" s="67"/>
     </row>
-    <row r="10" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="64"/>
       <c r="B10" s="65"/>
       <c r="C10" s="68"/>
@@ -9101,7 +9075,7 @@
       <c r="AG10" s="70"/>
       <c r="AH10" s="67"/>
     </row>
-    <row r="11" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="64"/>
       <c r="B11" s="65"/>
       <c r="C11" s="68"/>
@@ -9137,7 +9111,7 @@
       <c r="AG11" s="70"/>
       <c r="AH11" s="67"/>
     </row>
-    <row r="12" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="64"/>
       <c r="B12" s="65"/>
       <c r="C12" s="68"/>
@@ -9173,7 +9147,7 @@
       <c r="AG12" s="70"/>
       <c r="AH12" s="67"/>
     </row>
-    <row r="13" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="64"/>
       <c r="B13" s="65"/>
       <c r="C13" s="68"/>
@@ -9209,7 +9183,7 @@
       <c r="AG13" s="70"/>
       <c r="AH13" s="67"/>
     </row>
-    <row r="14" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="64"/>
       <c r="B14" s="65"/>
       <c r="C14" s="68"/>
@@ -9245,7 +9219,7 @@
       <c r="AG14" s="70"/>
       <c r="AH14" s="67"/>
     </row>
-    <row r="15" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="64"/>
       <c r="B15" s="65"/>
       <c r="C15" s="68"/>
@@ -9281,7 +9255,7 @@
       <c r="AG15" s="70"/>
       <c r="AH15" s="67"/>
     </row>
-    <row r="16" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="64"/>
       <c r="B16" s="65"/>
       <c r="C16" s="68"/>
@@ -9317,7 +9291,7 @@
       <c r="AG16" s="70"/>
       <c r="AH16" s="67"/>
     </row>
-    <row r="17" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="64"/>
       <c r="B17" s="65"/>
       <c r="C17" s="68"/>
@@ -9353,7 +9327,7 @@
       <c r="AG17" s="70"/>
       <c r="AH17" s="67"/>
     </row>
-    <row r="18" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="64"/>
       <c r="B18" s="65"/>
       <c r="C18" s="68"/>
@@ -9389,7 +9363,7 @@
       <c r="AG18" s="70"/>
       <c r="AH18" s="67"/>
     </row>
-    <row r="19" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="64"/>
       <c r="B19" s="65"/>
       <c r="C19" s="68"/>
@@ -9425,7 +9399,7 @@
       <c r="AG19" s="70"/>
       <c r="AH19" s="67"/>
     </row>
-    <row r="20" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="64"/>
       <c r="B20" s="65"/>
       <c r="C20" s="68"/>
@@ -9461,7 +9435,7 @@
       <c r="AG20" s="70"/>
       <c r="AH20" s="67"/>
     </row>
-    <row r="21" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="64"/>
       <c r="B21" s="65"/>
       <c r="C21" s="68"/>
@@ -9497,7 +9471,7 @@
       <c r="AG21" s="70"/>
       <c r="AH21" s="67"/>
     </row>
-    <row r="22" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64"/>
       <c r="B22" s="65"/>
       <c r="C22" s="68"/>
@@ -9533,66 +9507,66 @@
       <c r="AG22" s="70"/>
       <c r="AH22" s="67"/>
     </row>
-    <row r="23" spans="1:39" ht="48.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="54" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="B23" s="91" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>11</v>
+        <v>285</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="E23" s="175" t="s">
-        <v>55</v>
+        <v>287</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>13</v>
+        <v>288</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>14</v>
+        <v>289</v>
       </c>
       <c r="H23" s="93" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>44</v>
+        <v>291</v>
       </c>
       <c r="J23" s="8" t="s">
-        <v>38</v>
+        <v>292</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="L23" s="8" t="s">
-        <v>3</v>
+        <v>294</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>15</v>
+        <v>295</v>
       </c>
       <c r="N23" s="8" t="s">
-        <v>16</v>
+        <v>296</v>
       </c>
       <c r="O23" s="8" t="s">
-        <v>17</v>
+        <v>297</v>
       </c>
       <c r="P23" s="8" t="s">
-        <v>18</v>
+        <v>298</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>7</v>
+        <v>299</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>9</v>
+        <v>300</v>
       </c>
       <c r="S23" s="10" t="s">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="T23" s="10" t="s">
-        <v>2</v>
+        <v>302</v>
       </c>
       <c r="U23" s="193" t="s">
         <v>4</v>
@@ -9643,9 +9617,9 @@
       <c r="AL23" s="196"/>
       <c r="AM23" s="80"/>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="41">
         <v>45214.625</v>
@@ -9761,9 +9735,9 @@
       </c>
       <c r="AM24" s="210"/>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="41">
         <v>45214.666666666664</v>
@@ -9869,9 +9843,9 @@
       </c>
       <c r="AM25" s="212"/>
     </row>
-    <row r="26" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B26" s="41">
         <v>45214.708333333336</v>
@@ -9987,9 +9961,9 @@
       </c>
       <c r="AM26" s="214"/>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="41">
         <v>45214.875</v>
@@ -10095,9 +10069,9 @@
       <c r="AL27" s="198"/>
       <c r="AM27" s="199"/>
     </row>
-    <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B28" s="41">
         <v>45214.916666666664</v>
@@ -10211,9 +10185,9 @@
       <c r="AL28" s="201"/>
       <c r="AM28" s="202"/>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B29" s="41">
         <v>45214.958333333336</v>
@@ -10323,9 +10297,9 @@
       </c>
       <c r="AH29" s="1"/>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B30" s="41">
         <v>45214</v>
@@ -10435,9 +10409,9 @@
       </c>
       <c r="AH30" s="1"/>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B31" s="41">
         <v>45215.041666666664</v>
@@ -10547,9 +10521,9 @@
       </c>
       <c r="AH31" s="1"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B32" s="41">
         <v>45215.083333333336</v>
@@ -10649,9 +10623,9 @@
       </c>
       <c r="AH32" s="1"/>
     </row>
-    <row r="33" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B33" s="74">
         <v>45215.125</v>
@@ -10751,9 +10725,9 @@
       </c>
       <c r="AH33" s="25"/>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B34" s="73">
         <v>45215.166666666664</v>
@@ -10853,9 +10827,9 @@
       </c>
       <c r="AH34" s="18"/>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B35" s="41">
         <v>45215.208333333336</v>
@@ -10955,9 +10929,9 @@
       </c>
       <c r="AH35" s="1"/>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B36" s="41">
         <v>45215.291666666664</v>
@@ -11057,9 +11031,9 @@
       </c>
       <c r="AH36" s="1"/>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B37" s="41">
         <v>45215.375</v>
@@ -11169,9 +11143,9 @@
       </c>
       <c r="AH37" s="1"/>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="41">
         <v>45215.416666666664</v>
@@ -11271,9 +11245,9 @@
       </c>
       <c r="AH38" s="1"/>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="41">
         <v>45215.458333333336</v>
@@ -11383,9 +11357,9 @@
       </c>
       <c r="AH39" s="1"/>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B40" s="41">
         <v>45215.5</v>
@@ -11495,9 +11469,9 @@
       </c>
       <c r="AH40" s="1"/>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B41" s="41">
         <v>45215.625</v>
@@ -11605,9 +11579,9 @@
       </c>
       <c r="AH41" s="1"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B42" s="41">
         <v>45215.666666666664</v>
@@ -11705,9 +11679,9 @@
       </c>
       <c r="AH42" s="1"/>
     </row>
-    <row r="43" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B43" s="74">
         <v>45215.708333333336</v>
@@ -11815,9 +11789,9 @@
       </c>
       <c r="AH43" s="25"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" s="73">
         <v>45215.75</v>
@@ -11925,9 +11899,9 @@
       </c>
       <c r="AH44" s="18"/>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" s="41">
         <v>45215.875</v>
@@ -12037,9 +12011,9 @@
       </c>
       <c r="AH45" s="1"/>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" s="41">
         <v>45215.916666666664</v>
@@ -12149,9 +12123,9 @@
       </c>
       <c r="AH46" s="1"/>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="41">
         <v>45215.958333333336</v>
@@ -12261,9 +12235,9 @@
       </c>
       <c r="AH47" s="1"/>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B48" s="41">
         <v>45215</v>
@@ -12373,9 +12347,9 @@
       </c>
       <c r="AH48" s="1"/>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" s="41">
         <v>45216.041666666664</v>
@@ -12485,9 +12459,9 @@
       </c>
       <c r="AH49" s="1"/>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B50" s="41">
         <v>45216.083333333336</v>
@@ -12597,9 +12571,9 @@
       </c>
       <c r="AH50" s="1"/>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B51" s="41">
         <v>45216.125</v>
@@ -12709,9 +12683,9 @@
       </c>
       <c r="AH51" s="1"/>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" s="41">
         <v>45216.166666666664</v>
@@ -12821,9 +12795,9 @@
       </c>
       <c r="AH52" s="1"/>
     </row>
-    <row r="53" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="74">
         <v>45216.208333333336</v>
@@ -12933,9 +12907,9 @@
       </c>
       <c r="AH53" s="25"/>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B54" s="73">
         <v>45216.25</v>
@@ -13045,9 +13019,9 @@
       </c>
       <c r="AH54" s="18"/>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B55" s="41">
         <v>45216.291666666664</v>
@@ -13157,9 +13131,9 @@
       </c>
       <c r="AH55" s="1"/>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B56" s="41">
         <v>45216.416666666664</v>
@@ -13269,9 +13243,9 @@
       </c>
       <c r="AH56" s="1"/>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B57" s="41">
         <v>45216.458333333336</v>
@@ -13381,9 +13355,9 @@
       </c>
       <c r="AH57" s="1"/>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B58" s="41">
         <v>45216.541666666664</v>
@@ -13493,9 +13467,9 @@
       </c>
       <c r="AH58" s="1"/>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" s="41">
         <v>45216.583333333336</v>
@@ -13595,9 +13569,9 @@
       </c>
       <c r="AH59" s="1"/>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B60" s="41">
         <v>45216.666666666664</v>
@@ -13695,9 +13669,9 @@
       </c>
       <c r="AH60" s="1"/>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B61" s="115"/>
       <c r="C61" s="116"/>
@@ -13765,9 +13739,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B62" s="41">
         <v>45216.8125</v>
@@ -13865,9 +13839,9 @@
       </c>
       <c r="AH62" s="1"/>
     </row>
-    <row r="63" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="22" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B63" s="74">
         <v>45216.854166666664</v>
@@ -13967,9 +13941,9 @@
       </c>
       <c r="AH63" s="25"/>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B64" s="73">
         <v>45216.875</v>
@@ -14069,9 +14043,9 @@
       </c>
       <c r="AH64" s="18"/>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B65" s="41">
         <v>45216.958333333336</v>
@@ -14171,9 +14145,9 @@
       </c>
       <c r="AH65" s="1"/>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B66" s="41">
         <v>45217</v>
@@ -14273,9 +14247,9 @@
       </c>
       <c r="AH66" s="1"/>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B67" s="41">
         <v>45217.041666666664</v>
@@ -14375,9 +14349,9 @@
       </c>
       <c r="AH67" s="1"/>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B68" s="41">
         <v>45220.791666666664</v>
@@ -14475,9 +14449,9 @@
       </c>
       <c r="AH68" s="1"/>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B69" s="41">
         <v>45220.833333333336</v>
@@ -14585,9 +14559,9 @@
       </c>
       <c r="AH69" s="1"/>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B70" s="41">
         <v>45220.875</v>
@@ -14695,9 +14669,9 @@
       </c>
       <c r="AH70" s="1"/>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B71" s="41">
         <v>45220.916666666664</v>
@@ -14805,9 +14779,9 @@
       </c>
       <c r="AH71" s="1"/>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B72" s="41">
         <v>45220.958333333336</v>
@@ -14915,9 +14889,9 @@
       </c>
       <c r="AH72" s="1"/>
     </row>
-    <row r="73" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B73" s="74">
         <v>45221.041666666664</v>
@@ -15027,9 +15001,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B74" s="73">
         <v>45221.083333333336</v>
@@ -15139,9 +15113,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B75" s="41">
         <v>45221.125</v>
@@ -15251,9 +15225,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B76" s="41">
         <v>45221.166666666664</v>
@@ -15355,9 +15329,9 @@
       </c>
       <c r="AH76" s="1"/>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B77" s="41">
         <v>45221.291666666664</v>
@@ -15467,9 +15441,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B78" s="41">
         <v>45221.458333333336</v>
@@ -15577,9 +15551,9 @@
       </c>
       <c r="AH78" s="1"/>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B79" s="41">
         <v>45221.5</v>
@@ -15687,9 +15661,9 @@
       </c>
       <c r="AH79" s="1"/>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" s="41">
         <v>45221.583333333336</v>
@@ -15797,9 +15771,9 @@
       </c>
       <c r="AH80" s="1"/>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B81" s="41">
         <v>45221.625</v>
@@ -15907,9 +15881,9 @@
       </c>
       <c r="AH81" s="1"/>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B82" s="41">
         <v>45221.708333333336</v>
@@ -16019,9 +15993,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B83" s="74">
         <v>45221.75</v>
@@ -16129,9 +16103,9 @@
       </c>
       <c r="AH83" s="25"/>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A84" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B84" s="73">
         <v>45221.791666666664</v>
@@ -16239,9 +16213,9 @@
       </c>
       <c r="AH84" s="18"/>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B85" s="41">
         <v>45221.875</v>
@@ -16349,9 +16323,9 @@
       </c>
       <c r="AH85" s="1"/>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B86" s="41">
         <v>45221.916666666664</v>
@@ -16459,9 +16433,9 @@
       </c>
       <c r="AH86" s="1"/>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B87" s="41">
         <v>45221.958333333336</v>
@@ -16569,9 +16543,9 @@
       </c>
       <c r="AH87" s="1"/>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B88" s="41">
         <v>45222</v>
@@ -16681,9 +16655,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B89" s="41">
         <v>45222.041666666664</v>
@@ -16793,9 +16767,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B90" s="41">
         <v>45222.083333333336</v>
@@ -16903,9 +16877,9 @@
       </c>
       <c r="AH90" s="1"/>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B91" s="41">
         <v>45222.125</v>
@@ -17014,9 +16988,9 @@
       </c>
       <c r="AH91" s="1"/>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B92" s="41">
         <v>45222.166666666664</v>
@@ -17124,9 +17098,9 @@
       </c>
       <c r="AH92" s="1"/>
     </row>
-    <row r="93" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="22" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B93" s="74">
         <v>45222.208333333336</v>
@@ -17236,9 +17210,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A94" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B94" s="73">
         <v>45222.291666666664</v>
@@ -17346,9 +17320,9 @@
       </c>
       <c r="AH94" s="18"/>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B95" s="41">
         <v>45222.375</v>
@@ -17456,9 +17430,9 @@
       </c>
       <c r="AH95" s="1"/>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B96" s="41">
         <v>45222.458333333336</v>
@@ -17568,9 +17542,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B97" s="41">
         <v>45222.5</v>
@@ -17680,9 +17654,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B98" s="41">
         <v>45222.583333333336</v>
@@ -17790,9 +17764,9 @@
       </c>
       <c r="AH98" s="1"/>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B99" s="41">
         <v>45222.625</v>
@@ -17902,9 +17876,9 @@
       </c>
       <c r="AH99" s="1"/>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B100" s="41">
         <v>45222.708333333336</v>
@@ -18014,9 +17988,9 @@
       </c>
       <c r="AH100" s="1"/>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B101" s="41">
         <v>45222.75</v>
@@ -18126,9 +18100,9 @@
       </c>
       <c r="AH101" s="1"/>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B102" s="41">
         <v>45222.791666666664</v>
@@ -18238,9 +18212,9 @@
       </c>
       <c r="AH102" s="1"/>
     </row>
-    <row r="103" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B103" s="74">
         <v>45222.875</v>
@@ -18350,9 +18324,9 @@
       </c>
       <c r="AH103" s="25"/>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B104" s="73">
         <v>45222.916666666664</v>
@@ -18462,9 +18436,9 @@
       </c>
       <c r="AH104" s="18"/>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B105" s="41">
         <v>45222.958333333336</v>
@@ -18572,9 +18546,9 @@
       </c>
       <c r="AH105" s="1"/>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B106" s="41">
         <v>45223</v>
@@ -18682,9 +18656,9 @@
       </c>
       <c r="AH106" s="1"/>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B107" s="41">
         <v>45223.041666666664</v>
@@ -18792,9 +18766,9 @@
       </c>
       <c r="AH107" s="1"/>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B108" s="41">
         <v>45223.083333333336</v>
@@ -18902,9 +18876,9 @@
       </c>
       <c r="AH108" s="1"/>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B109" s="41">
         <v>45227.5</v>
@@ -19012,9 +18986,9 @@
       </c>
       <c r="AH109" s="1"/>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B110" s="41">
         <v>45227.541666666664</v>
@@ -19116,9 +19090,9 @@
       </c>
       <c r="AH110" s="1"/>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B111" s="41">
         <v>45227.583333333336</v>
@@ -19220,9 +19194,9 @@
       </c>
       <c r="AH111" s="1"/>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B112" s="41">
         <v>45227.625</v>
@@ -19330,9 +19304,9 @@
       </c>
       <c r="AH112" s="1"/>
     </row>
-    <row r="113" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B113" s="74">
         <v>45227.666666666664</v>
@@ -19440,9 +19414,9 @@
       </c>
       <c r="AH113" s="25"/>
     </row>
-    <row r="114" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B114" s="73">
         <v>45227.708333333336</v>
@@ -19550,9 +19524,9 @@
       </c>
       <c r="AH114" s="18"/>
     </row>
-    <row r="115" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B115" s="41">
         <v>45227.75</v>
@@ -19660,9 +19634,9 @@
       </c>
       <c r="AH115" s="1"/>
     </row>
-    <row r="116" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B116" s="41">
         <v>45227.916666666664</v>
@@ -19772,9 +19746,9 @@
       </c>
       <c r="AH116" s="1"/>
     </row>
-    <row r="117" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B117" s="41">
         <v>45228</v>
@@ -19884,9 +19858,9 @@
       </c>
       <c r="AH117" s="1"/>
     </row>
-    <row r="118" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B118" s="41">
         <v>45228.041666666664</v>
@@ -19996,9 +19970,9 @@
       </c>
       <c r="AH118" s="1"/>
     </row>
-    <row r="119" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B119" s="41">
         <v>45228.083333333336</v>
@@ -20106,9 +20080,9 @@
       </c>
       <c r="AH119" s="1"/>
     </row>
-    <row r="120" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B120" s="41">
         <v>45228.166666666664</v>
@@ -20216,9 +20190,9 @@
       </c>
       <c r="AH120" s="1"/>
     </row>
-    <row r="121" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B121" s="41">
         <v>45228.208333333336</v>
@@ -20326,9 +20300,9 @@
       </c>
       <c r="AH121" s="1"/>
     </row>
-    <row r="122" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B122" s="41">
         <v>45228.25</v>
@@ -20436,9 +20410,9 @@
       </c>
       <c r="AH122" s="1"/>
     </row>
-    <row r="123" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="22" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B123" s="74">
         <v>45228.291666666664</v>
@@ -20546,9 +20520,9 @@
       </c>
       <c r="AH123" s="25"/>
     </row>
-    <row r="124" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A124" s="124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B124" s="125">
         <v>45228.333333333336</v>
@@ -20655,9 +20629,9 @@
         <v>0.67205803822228538</v>
       </c>
     </row>
-    <row r="125" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B125" s="41">
         <v>45228.375</v>
@@ -20765,9 +20739,9 @@
       </c>
       <c r="AH125" s="1"/>
     </row>
-    <row r="126" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B126" s="41">
         <v>45228.416666666664</v>
@@ -20875,9 +20849,9 @@
       </c>
       <c r="AH126" s="1"/>
     </row>
-    <row r="127" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B127" s="41">
         <v>45228.458333333336</v>
@@ -20985,9 +20959,9 @@
       </c>
       <c r="AH127" s="1"/>
     </row>
-    <row r="128" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B128" s="41">
         <v>45228.5</v>
@@ -21095,9 +21069,9 @@
       </c>
       <c r="AH128" s="1"/>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B129" s="41">
         <v>45228.541666666664</v>
@@ -21205,9 +21179,9 @@
       </c>
       <c r="AH129" s="1"/>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B130" s="41">
         <v>45228.583333333336</v>
@@ -21315,9 +21289,9 @@
       </c>
       <c r="AH130" s="1"/>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B131" s="41">
         <v>45228.625</v>
@@ -21425,9 +21399,9 @@
       </c>
       <c r="AH131" s="1"/>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B132" s="41">
         <v>45228.666666666664</v>
@@ -21535,9 +21509,9 @@
       </c>
       <c r="AH132" s="1"/>
     </row>
-    <row r="133" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="22" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B133" s="74">
         <v>45228.708333333336</v>
@@ -21645,9 +21619,9 @@
       </c>
       <c r="AH133" s="25"/>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A134" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B134" s="73">
         <v>45228.75</v>
@@ -21757,9 +21731,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B135" s="41">
         <v>45228.791666666664</v>
@@ -21869,9 +21843,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B136" s="41">
         <v>45229.125</v>
@@ -21981,9 +21955,9 @@
       </c>
       <c r="AH136" s="1"/>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B137" s="41">
         <v>45229.208333333336</v>
@@ -22093,9 +22067,9 @@
       </c>
       <c r="AH137" s="1"/>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B138" s="41">
         <v>45229.25</v>
@@ -22206,9 +22180,9 @@
       </c>
       <c r="AH138" s="1"/>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B139" s="41">
         <v>45229.291666666664</v>
@@ -22318,9 +22292,9 @@
       </c>
       <c r="AH139" s="1"/>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B140" s="41">
         <v>45229.375</v>
@@ -22430,9 +22404,9 @@
       </c>
       <c r="AH140" s="1"/>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B141" s="41">
         <v>45229.416666666664</v>
@@ -22542,9 +22516,9 @@
       </c>
       <c r="AH141" s="1"/>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B142" s="41">
         <v>45229.458333333336</v>
@@ -22654,9 +22628,9 @@
       </c>
       <c r="AH142" s="1"/>
     </row>
-    <row r="143" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A143" s="22" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B143" s="74">
         <v>45229.5</v>
@@ -22766,9 +22740,9 @@
       </c>
       <c r="AH143" s="25"/>
     </row>
-    <row r="144" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A144" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B144" s="73">
         <v>45229.541666666664</v>
@@ -22878,9 +22852,9 @@
       </c>
       <c r="AH144" s="140"/>
     </row>
-    <row r="145" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A145" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B145" s="41">
         <v>45229.583333333336</v>
@@ -22984,9 +22958,9 @@
       </c>
       <c r="AH145" s="1"/>
     </row>
-    <row r="146" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A146" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B146" s="41">
         <v>45229.666666666664</v>
@@ -23096,9 +23070,9 @@
       </c>
       <c r="AH146" s="1"/>
     </row>
-    <row r="147" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A147" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B147" s="41">
         <v>45229.708333333336</v>
@@ -23202,9 +23176,9 @@
       </c>
       <c r="AH147" s="1"/>
     </row>
-    <row r="148" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B148" s="41">
         <v>45229.75</v>
@@ -23308,9 +23282,9 @@
       </c>
       <c r="AH148" s="1"/>
     </row>
-    <row r="149" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A149" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B149" s="41">
         <v>45229.791666666664</v>
@@ -23414,9 +23388,9 @@
       </c>
       <c r="AH149" s="1"/>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B150" s="41">
         <v>45229.958333333336</v>
@@ -23526,9 +23500,9 @@
       </c>
       <c r="AH150" s="1"/>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A151" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B151" s="41">
         <v>45230</v>
@@ -23640,9 +23614,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B152" s="41">
         <v>45230.041666666664</v>
@@ -23752,9 +23726,9 @@
       </c>
       <c r="AH152" s="1"/>
     </row>
-    <row r="153" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A153" s="22" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B153" s="74">
         <v>45230.125</v>
@@ -23864,9 +23838,9 @@
       </c>
       <c r="AH153" s="25"/>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B154" s="125">
         <v>45230.166666666664</v>
@@ -23976,9 +23950,9 @@
       </c>
       <c r="AH154" s="18"/>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B155" s="142">
         <v>45230.208333333336</v>
@@ -24088,9 +24062,9 @@
       </c>
       <c r="AH155" s="1"/>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B156" s="142">
         <v>45230.25</v>
@@ -24200,9 +24174,9 @@
       </c>
       <c r="AH156" s="1"/>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B157" s="142">
         <v>45230.291666666664</v>
@@ -24302,9 +24276,9 @@
       </c>
       <c r="AH157" s="1"/>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B158" s="142">
         <v>45230.375</v>
@@ -24404,9 +24378,9 @@
       </c>
       <c r="AH158" s="1"/>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A159" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B159" s="142">
         <v>45230.416666666664</v>
@@ -24506,9 +24480,9 @@
       </c>
       <c r="AH159" s="1"/>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B160" s="142">
         <v>45230.458333333336</v>
@@ -24608,9 +24582,9 @@
       </c>
       <c r="AH160" s="1"/>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B161" s="142">
         <v>45230.5</v>
@@ -24710,9 +24684,9 @@
       </c>
       <c r="AH161" s="1"/>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B162" s="142">
         <v>45230.541666666664</v>
@@ -24812,9 +24786,9 @@
       </c>
       <c r="AH162" s="1"/>
     </row>
-    <row r="163" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="22" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B163" s="142">
         <v>45230.583333333336</v>
@@ -24914,9 +24888,9 @@
       </c>
       <c r="AH163" s="25"/>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A164" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B164" s="142">
         <v>45230.625</v>
@@ -25016,9 +24990,9 @@
       </c>
       <c r="AH164" s="18"/>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B165" s="142">
         <v>45230.666666666664</v>
@@ -25118,9 +25092,9 @@
       </c>
       <c r="AH165" s="1"/>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B166" s="142">
         <v>45230.708333333336</v>
@@ -25220,9 +25194,9 @@
       </c>
       <c r="AH166" s="1"/>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B167" s="142">
         <v>45230.75</v>
@@ -25322,9 +25296,9 @@
       </c>
       <c r="AH167" s="1"/>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B168" s="142">
         <v>45230.791666666664</v>
@@ -25424,9 +25398,9 @@
       </c>
       <c r="AH168" s="1"/>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A169" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B169" s="182"/>
       <c r="C169" s="180"/>
@@ -25461,12 +25435,12 @@
       <c r="AF169" s="189"/>
       <c r="AG169" s="190"/>
       <c r="AH169" s="185" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B170" s="142">
         <v>45230.875</v>
@@ -25574,9 +25548,9 @@
       </c>
       <c r="AH170" s="1"/>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A171" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B171" s="142">
         <v>45230.916666666664</v>
@@ -25684,9 +25658,9 @@
       </c>
       <c r="AH171" s="1"/>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B172" s="142">
         <v>45230.958333333336</v>
@@ -25794,9 +25768,9 @@
       </c>
       <c r="AH172" s="1"/>
     </row>
-    <row r="173" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A173" s="22" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B173" s="74">
         <v>45230</v>
@@ -25906,9 +25880,9 @@
       </c>
       <c r="AH173" s="25"/>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A174" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B174" s="125">
         <v>45231.041666666664</v>
@@ -26018,9 +25992,9 @@
       </c>
       <c r="AH174" s="18"/>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B175" s="41">
         <v>45232.083333333336</v>
@@ -26130,9 +26104,9 @@
       </c>
       <c r="AH175" s="1"/>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B176" s="41">
         <v>45234.652777777781</v>
@@ -26242,9 +26216,9 @@
       </c>
       <c r="AH176" s="1"/>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B177" s="41">
         <v>45234.708333333336</v>
@@ -26355,9 +26329,9 @@
       </c>
       <c r="AH177" s="1"/>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B178" s="41">
         <v>45234.791666666664</v>
@@ -26468,9 +26442,9 @@
       </c>
       <c r="AH178" s="1"/>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B179" s="41">
         <v>45234.875</v>
@@ -26582,9 +26556,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B180" s="41">
         <v>45234.916666666664</v>
@@ -26692,9 +26666,9 @@
       </c>
       <c r="AH180" s="1"/>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B181" s="41">
         <v>45234.958333333336</v>
@@ -26802,9 +26776,9 @@
       </c>
       <c r="AH181" s="1"/>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B182" s="41">
         <v>45235</v>
@@ -26912,9 +26886,9 @@
       </c>
       <c r="AH182" s="1"/>
     </row>
-    <row r="183" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A183" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B183" s="74">
         <v>45235.041666666664</v>
@@ -27022,9 +26996,9 @@
       </c>
       <c r="AH183" s="25"/>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B184" s="73">
         <v>45235.083333333336</v>
@@ -27134,9 +27108,9 @@
       </c>
       <c r="AH184" s="18"/>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A185" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B185" s="41">
         <v>45235.125</v>
@@ -27246,9 +27220,9 @@
       </c>
       <c r="AH185" s="1"/>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B186" s="41">
         <v>45235.166666666664</v>
@@ -27358,9 +27332,9 @@
       </c>
       <c r="AH186" s="1"/>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B187" s="41">
         <v>45235.25</v>
@@ -27470,9 +27444,9 @@
       </c>
       <c r="AH187" s="1"/>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B188" s="41">
         <v>45235.291666666664</v>
@@ -27580,9 +27554,9 @@
       </c>
       <c r="AH188" s="1"/>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B189" s="41">
         <v>45235.375</v>
@@ -27692,9 +27666,9 @@
       </c>
       <c r="AH189" s="1"/>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B190" s="41">
         <v>45235.458333333336</v>
@@ -27804,9 +27778,9 @@
       </c>
       <c r="AH190" s="1"/>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A191" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B191" s="41">
         <v>45235.5</v>
@@ -27916,9 +27890,9 @@
       </c>
       <c r="AH191" s="1"/>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B192" s="41">
         <v>45235.541666666664</v>
@@ -28028,9 +28002,9 @@
       </c>
       <c r="AH192" s="1"/>
     </row>
-    <row r="193" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B193" s="74">
         <v>45235.583333333336</v>
@@ -28140,9 +28114,9 @@
       </c>
       <c r="AH193" s="25"/>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A194" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B194" s="73">
         <v>45235.625</v>
@@ -28252,9 +28226,9 @@
       </c>
       <c r="AH194" s="18"/>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B195" s="41">
         <v>45235.666666666664</v>
@@ -28364,9 +28338,9 @@
       </c>
       <c r="AH195" s="1"/>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B196" s="41">
         <v>45235.75</v>
@@ -28476,9 +28450,9 @@
       </c>
       <c r="AH196" s="1"/>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B197" s="41">
         <v>45235.791666666664</v>
@@ -28588,9 +28562,9 @@
       </c>
       <c r="AH197" s="1"/>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B198" s="41">
         <v>45235.833333333336</v>
@@ -28700,9 +28674,9 @@
       </c>
       <c r="AH198" s="1"/>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A199" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B199" s="41">
         <v>45235.875</v>
@@ -28812,9 +28786,9 @@
       </c>
       <c r="AH199" s="1"/>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B200" s="41">
         <v>45235.916666666664</v>
@@ -28924,9 +28898,9 @@
       </c>
       <c r="AH200" s="1"/>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A201" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B201" s="41">
         <v>45235.958333333336</v>
@@ -29036,9 +29010,9 @@
       </c>
       <c r="AH201" s="1"/>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A202" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B202" s="41">
         <v>45235</v>
@@ -29148,9 +29122,9 @@
       </c>
       <c r="AH202" s="1"/>
     </row>
-    <row r="203" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A203" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B203" s="74">
         <v>45236.041666666664</v>
@@ -29260,9 +29234,9 @@
       </c>
       <c r="AH203" s="25"/>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B204" s="73">
         <v>45236.083333333336</v>
@@ -29372,9 +29346,9 @@
       </c>
       <c r="AH204" s="18"/>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A205" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B205" s="41">
         <v>45236.125</v>
@@ -29440,7 +29414,7 @@
         <v>177.78</v>
       </c>
       <c r="W205" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="X205" s="6">
         <v>6201.52</v>
@@ -29482,9 +29456,9 @@
       </c>
       <c r="AH205" s="1"/>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A206" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B206" s="73">
         <v>45236.25</v>
@@ -29592,9 +29566,9 @@
       </c>
       <c r="AH206" s="1"/>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A207" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B207" s="73">
         <v>45236.458333333336</v>
@@ -29702,9 +29676,9 @@
       </c>
       <c r="AH207" s="1"/>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B208" s="73">
         <v>45236.583333333336</v>
@@ -29810,9 +29784,9 @@
       </c>
       <c r="AH208" s="1"/>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A209" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B209" s="73">
         <v>45236.625</v>
@@ -29918,9 +29892,9 @@
       </c>
       <c r="AH209" s="1"/>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A210" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B210" s="73">
         <v>45236.666666666664</v>
@@ -30026,9 +30000,9 @@
       </c>
       <c r="AH210" s="1"/>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A211" s="13" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B211" s="73">
         <v>45236.75</v>
@@ -30134,9 +30108,9 @@
       </c>
       <c r="AH211" s="1"/>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A212" s="13" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B212" s="5"/>
       <c r="C212" s="7"/>
@@ -30206,9 +30180,9 @@
       </c>
       <c r="AH212" s="1"/>
     </row>
-    <row r="213" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A213" s="13" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B213" s="23"/>
       <c r="C213" s="28"/>
@@ -30278,9 +30252,9 @@
       </c>
       <c r="AH213" s="25"/>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A214" s="13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B214" s="73">
         <v>45237</v>
@@ -30358,9 +30332,9 @@
       </c>
       <c r="AH214" s="18"/>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A215" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B215" s="5"/>
       <c r="C215" s="7"/>
@@ -30430,9 +30404,9 @@
       </c>
       <c r="AH215" s="1"/>
     </row>
-    <row r="216" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A216" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B216" s="5"/>
       <c r="C216" s="7"/>
@@ -30502,9 +30476,9 @@
       </c>
       <c r="AH216" s="1"/>
     </row>
-    <row r="217" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A217" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B217" s="5"/>
       <c r="C217" s="7"/>
@@ -30574,9 +30548,9 @@
       </c>
       <c r="AH217" s="1"/>
     </row>
-    <row r="218" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A218" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B218" s="5"/>
       <c r="C218" s="7"/>
@@ -30642,9 +30616,9 @@
       </c>
       <c r="AH218" s="1"/>
     </row>
-    <row r="219" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A219" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B219" s="5"/>
       <c r="C219" s="7"/>
@@ -30710,9 +30684,9 @@
       </c>
       <c r="AH219" s="1"/>
     </row>
-    <row r="220" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B220" s="5"/>
       <c r="C220" s="7"/>
@@ -30778,9 +30752,9 @@
       </c>
       <c r="AH220" s="1"/>
     </row>
-    <row r="221" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A221" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B221" s="5"/>
       <c r="C221" s="7"/>
@@ -30846,9 +30820,9 @@
       </c>
       <c r="AH221" s="1"/>
     </row>
-    <row r="222" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A222" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B222" s="5"/>
       <c r="C222" s="7"/>
@@ -30914,9 +30888,9 @@
       </c>
       <c r="AH222" s="1"/>
     </row>
-    <row r="223" spans="1:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A223" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B223" s="23"/>
       <c r="C223" s="28"/>
@@ -30982,9 +30956,9 @@
       </c>
       <c r="AH223" s="25"/>
     </row>
-    <row r="224" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A224" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B224" s="134"/>
       <c r="C224" s="21"/>
@@ -31050,9 +31024,9 @@
       </c>
       <c r="AH224" s="18"/>
     </row>
-    <row r="225" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A225" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B225" s="5"/>
       <c r="C225" s="7"/>
@@ -31118,9 +31092,9 @@
       </c>
       <c r="AH225" s="1"/>
     </row>
-    <row r="226" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A226" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B226" s="5"/>
       <c r="C226" s="7"/>
@@ -31186,9 +31160,9 @@
       </c>
       <c r="AH226" s="1"/>
     </row>
-    <row r="227" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A227" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B227" s="5"/>
       <c r="C227" s="7"/>
@@ -31254,9 +31228,9 @@
       </c>
       <c r="AH227" s="1"/>
     </row>
-    <row r="228" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A228" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B228" s="5"/>
       <c r="C228" s="7"/>
@@ -31322,9 +31296,9 @@
       </c>
       <c r="AH228" s="1"/>
     </row>
-    <row r="229" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A229" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B229" s="5"/>
       <c r="C229" s="7"/>
@@ -31390,9 +31364,9 @@
       </c>
       <c r="AH229" s="1"/>
     </row>
-    <row r="230" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A230" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B230" s="5"/>
       <c r="C230" s="7"/>
@@ -31458,9 +31432,9 @@
       </c>
       <c r="AH230" s="1"/>
     </row>
-    <row r="231" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A231" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B231" s="5"/>
       <c r="C231" s="7"/>
@@ -31526,9 +31500,9 @@
       </c>
       <c r="AH231" s="1"/>
     </row>
-    <row r="232" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A232" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B232" s="5"/>
       <c r="C232" s="7"/>
@@ -31594,9 +31568,9 @@
       </c>
       <c r="AH232" s="1"/>
     </row>
-    <row r="233" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A233" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B233" s="5"/>
       <c r="C233" s="7"/>
@@ -31662,9 +31636,9 @@
       </c>
       <c r="AH233" s="1"/>
     </row>
-    <row r="234" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A234" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B234" s="5"/>
       <c r="C234" s="7"/>
@@ -31730,9 +31704,9 @@
       </c>
       <c r="AH234" s="1"/>
     </row>
-    <row r="235" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A235" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B235" s="5"/>
       <c r="C235" s="7"/>
@@ -31798,9 +31772,9 @@
       </c>
       <c r="AH235" s="1"/>
     </row>
-    <row r="236" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A236" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B236" s="5"/>
       <c r="C236" s="7"/>
@@ -31866,9 +31840,9 @@
       </c>
       <c r="AH236" s="1"/>
     </row>
-    <row r="237" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A237" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B237" s="5"/>
       <c r="C237" s="7"/>
@@ -31934,9 +31908,9 @@
       </c>
       <c r="AH237" s="1"/>
     </row>
-    <row r="238" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A238" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B238" s="5"/>
       <c r="C238" s="7"/>
@@ -32002,9 +31976,9 @@
       </c>
       <c r="AH238" s="1"/>
     </row>
-    <row r="239" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A239" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B239" s="5"/>
       <c r="C239" s="7"/>
@@ -32070,9 +32044,9 @@
       </c>
       <c r="AH239" s="1"/>
     </row>
-    <row r="240" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A240" s="13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B240" s="5"/>
       <c r="C240" s="7"/>
@@ -32138,9 +32112,9 @@
       </c>
       <c r="AH240" s="1"/>
     </row>
-    <row r="241" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A241" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B241" s="5"/>
       <c r="C241" s="7"/>
@@ -32206,9 +32180,9 @@
       </c>
       <c r="AH241" s="1"/>
     </row>
-    <row r="242" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A242" s="13" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B242" s="5"/>
       <c r="C242" s="7"/>
@@ -32274,9 +32248,9 @@
       </c>
       <c r="AH242" s="1"/>
     </row>
-    <row r="243" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A243" s="13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B243" s="5"/>
       <c r="C243" s="7"/>
@@ -32342,9 +32316,9 @@
       </c>
       <c r="AH243" s="1"/>
     </row>
-    <row r="244" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A244" s="13" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B244" s="5"/>
       <c r="C244" s="7"/>
@@ -32410,9 +32384,9 @@
       </c>
       <c r="AH244" s="1"/>
     </row>
-    <row r="245" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A245" s="13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B245" s="5"/>
       <c r="C245" s="7"/>
@@ -32478,9 +32452,9 @@
       </c>
       <c r="AH245" s="1"/>
     </row>
-    <row r="246" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A246" s="13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B246" s="5"/>
       <c r="C246" s="7"/>
@@ -32546,9 +32520,9 @@
       </c>
       <c r="AH246" s="1"/>
     </row>
-    <row r="247" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A247" s="13" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B247" s="5"/>
       <c r="C247" s="7"/>
@@ -32614,9 +32588,9 @@
       </c>
       <c r="AH247" s="1"/>
     </row>
-    <row r="248" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B248" s="5"/>
       <c r="C248" s="7"/>
@@ -32682,9 +32656,9 @@
       </c>
       <c r="AH248" s="1"/>
     </row>
-    <row r="249" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A249" s="13" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B249" s="5"/>
       <c r="C249" s="7"/>
@@ -32750,9 +32724,9 @@
       </c>
       <c r="AH249" s="1"/>
     </row>
-    <row r="250" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A250" s="13" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B250" s="5"/>
       <c r="C250" s="7"/>
@@ -32818,7 +32792,7 @@
       </c>
       <c r="AH250" s="1"/>
     </row>
-    <row r="251" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A251" s="11"/>
       <c r="B251" s="5"/>
       <c r="C251" s="7"/>
@@ -32857,7 +32831,7 @@
       <c r="AG251" s="133"/>
       <c r="AH251" s="1"/>
     </row>
-    <row r="252" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A252" s="11"/>
       <c r="B252" s="5"/>
       <c r="C252" s="7"/>
@@ -32893,7 +32867,7 @@
       <c r="AG252" s="133"/>
       <c r="AH252" s="1"/>
     </row>
-    <row r="253" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A253" s="11"/>
       <c r="B253" s="5"/>
       <c r="C253" s="7"/>
@@ -32929,7 +32903,7 @@
       <c r="AG253" s="133"/>
       <c r="AH253" s="1"/>
     </row>
-    <row r="254" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A254" s="11"/>
       <c r="B254" s="5"/>
       <c r="C254" s="7"/>
@@ -32965,7 +32939,7 @@
       <c r="AG254" s="133"/>
       <c r="AH254" s="1"/>
     </row>
-    <row r="255" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A255" s="11"/>
       <c r="B255" s="5"/>
       <c r="C255" s="7"/>
@@ -33001,7 +32975,7 @@
       <c r="AG255" s="133"/>
       <c r="AH255" s="1"/>
     </row>
-    <row r="256" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A256" s="11"/>
       <c r="B256" s="5"/>
       <c r="C256" s="7"/>
@@ -33037,7 +33011,7 @@
       <c r="AG256" s="133"/>
       <c r="AH256" s="1"/>
     </row>
-    <row r="257" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A257" s="11"/>
       <c r="B257" s="5"/>
       <c r="C257" s="7"/>
@@ -33073,7 +33047,7 @@
       <c r="AG257" s="133"/>
       <c r="AH257" s="1"/>
     </row>
-    <row r="258" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A258" s="11"/>
       <c r="B258" s="5"/>
       <c r="C258" s="7"/>
@@ -33109,7 +33083,7 @@
       <c r="AG258" s="133"/>
       <c r="AH258" s="1"/>
     </row>
-    <row r="259" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A259" s="11"/>
       <c r="B259" s="5"/>
       <c r="C259" s="7"/>
@@ -33145,7 +33119,7 @@
       <c r="AG259" s="133"/>
       <c r="AH259" s="1"/>
     </row>
-    <row r="260" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A260" s="11"/>
       <c r="B260" s="5"/>
       <c r="C260" s="7"/>
@@ -33181,7 +33155,7 @@
       <c r="AG260" s="133"/>
       <c r="AH260" s="1"/>
     </row>
-    <row r="261" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A261" s="11"/>
       <c r="B261" s="5"/>
       <c r="C261" s="7"/>
@@ -33217,7 +33191,7 @@
       <c r="AG261" s="133"/>
       <c r="AH261" s="1"/>
     </row>
-    <row r="262" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A262" s="11"/>
       <c r="B262" s="5"/>
       <c r="C262" s="7"/>
@@ -33253,7 +33227,7 @@
       <c r="AG262" s="133"/>
       <c r="AH262" s="1"/>
     </row>
-    <row r="263" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A263" s="11"/>
       <c r="B263" s="5"/>
       <c r="C263" s="7"/>
@@ -33289,7 +33263,7 @@
       <c r="AG263" s="133"/>
       <c r="AH263" s="1"/>
     </row>
-    <row r="264" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A264" s="11"/>
       <c r="B264" s="5"/>
       <c r="C264" s="7"/>
@@ -33325,7 +33299,7 @@
       <c r="AG264" s="133"/>
       <c r="AH264" s="1"/>
     </row>
-    <row r="265" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A265" s="11"/>
       <c r="B265" s="5"/>
       <c r="C265" s="7"/>
@@ -33361,7 +33335,7 @@
       <c r="AG265" s="133"/>
       <c r="AH265" s="1"/>
     </row>
-    <row r="266" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A266" s="11"/>
       <c r="B266" s="5"/>
       <c r="C266" s="7"/>
@@ -33397,7 +33371,7 @@
       <c r="AG266" s="133"/>
       <c r="AH266" s="1"/>
     </row>
-    <row r="267" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A267" s="11"/>
       <c r="B267" s="5"/>
       <c r="C267" s="7"/>
@@ -33433,7 +33407,7 @@
       <c r="AG267" s="133"/>
       <c r="AH267" s="1"/>
     </row>
-    <row r="268" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A268" s="11"/>
       <c r="B268" s="5"/>
       <c r="C268" s="7"/>
@@ -33469,7 +33443,7 @@
       <c r="AG268" s="133"/>
       <c r="AH268" s="1"/>
     </row>
-    <row r="269" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A269" s="11"/>
       <c r="B269" s="5"/>
       <c r="C269" s="7"/>
@@ -33505,7 +33479,7 @@
       <c r="AG269" s="133"/>
       <c r="AH269" s="1"/>
     </row>
-    <row r="270" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A270" s="11"/>
       <c r="B270" s="5"/>
       <c r="C270" s="7"/>
@@ -33541,7 +33515,7 @@
       <c r="AG270" s="133"/>
       <c r="AH270" s="1"/>
     </row>
-    <row r="271" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A271" s="11"/>
       <c r="B271" s="5"/>
       <c r="C271" s="7"/>
@@ -33577,7 +33551,7 @@
       <c r="AG271" s="133"/>
       <c r="AH271" s="1"/>
     </row>
-    <row r="272" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A272" s="11"/>
       <c r="B272" s="5"/>
       <c r="C272" s="7"/>
@@ -33613,7 +33587,7 @@
       <c r="AG272" s="133"/>
       <c r="AH272" s="1"/>
     </row>
-    <row r="273" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A273" s="11"/>
       <c r="B273" s="5"/>
       <c r="C273" s="7"/>
@@ -33649,7 +33623,7 @@
       <c r="AG273" s="133"/>
       <c r="AH273" s="1"/>
     </row>
-    <row r="274" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A274" s="11"/>
       <c r="B274" s="5"/>
       <c r="C274" s="7"/>
@@ -33685,7 +33659,7 @@
       <c r="AG274" s="133"/>
       <c r="AH274" s="1"/>
     </row>
-    <row r="275" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A275" s="11"/>
       <c r="B275" s="5"/>
       <c r="C275" s="7"/>
@@ -33721,7 +33695,7 @@
       <c r="AG275" s="133"/>
       <c r="AH275" s="1"/>
     </row>
-    <row r="276" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A276" s="11"/>
       <c r="B276" s="5"/>
       <c r="C276" s="7"/>
@@ -33757,7 +33731,7 @@
       <c r="AG276" s="133"/>
       <c r="AH276" s="1"/>
     </row>
-    <row r="277" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A277" s="11"/>
       <c r="B277" s="5"/>
       <c r="C277" s="7"/>
@@ -33793,7 +33767,7 @@
       <c r="AG277" s="133"/>
       <c r="AH277" s="1"/>
     </row>
-    <row r="278" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A278" s="11"/>
       <c r="B278" s="5"/>
       <c r="C278" s="7"/>
@@ -33829,7 +33803,7 @@
       <c r="AG278" s="133"/>
       <c r="AH278" s="1"/>
     </row>
-    <row r="279" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A279" s="11"/>
       <c r="B279" s="5"/>
       <c r="C279" s="7"/>
@@ -33865,7 +33839,7 @@
       <c r="AG279" s="133"/>
       <c r="AH279" s="1"/>
     </row>
-    <row r="280" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A280" s="11"/>
       <c r="B280" s="5"/>
       <c r="C280" s="7"/>
@@ -33901,7 +33875,7 @@
       <c r="AG280" s="133"/>
       <c r="AH280" s="1"/>
     </row>
-    <row r="281" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A281" s="11"/>
       <c r="B281" s="5"/>
       <c r="C281" s="7"/>
@@ -33937,7 +33911,7 @@
       <c r="AG281" s="133"/>
       <c r="AH281" s="1"/>
     </row>
-    <row r="282" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A282" s="11"/>
       <c r="B282" s="5"/>
       <c r="C282" s="7"/>
@@ -33973,7 +33947,7 @@
       <c r="AG282" s="133"/>
       <c r="AH282" s="1"/>
     </row>
-    <row r="283" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A283" s="11"/>
       <c r="B283" s="5"/>
       <c r="C283" s="7"/>
@@ -34009,7 +33983,7 @@
       <c r="AG283" s="133"/>
       <c r="AH283" s="1"/>
     </row>
-    <row r="284" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A284" s="11"/>
       <c r="B284" s="5"/>
       <c r="C284" s="7"/>
@@ -34045,7 +34019,7 @@
       <c r="AG284" s="133"/>
       <c r="AH284" s="1"/>
     </row>
-    <row r="285" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A285" s="11"/>
       <c r="B285" s="5"/>
       <c r="C285" s="7"/>
@@ -34081,7 +34055,7 @@
       <c r="AG285" s="133"/>
       <c r="AH285" s="1"/>
     </row>
-    <row r="286" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A286" s="11"/>
       <c r="B286" s="5"/>
       <c r="C286" s="7"/>
@@ -34117,7 +34091,7 @@
       <c r="AG286" s="133"/>
       <c r="AH286" s="1"/>
     </row>
-    <row r="287" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A287" s="11"/>
       <c r="B287" s="5"/>
       <c r="C287" s="7"/>
@@ -34153,7 +34127,7 @@
       <c r="AG287" s="133"/>
       <c r="AH287" s="1"/>
     </row>
-    <row r="288" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A288" s="11"/>
       <c r="B288" s="5"/>
       <c r="C288" s="7"/>
@@ -34189,7 +34163,7 @@
       <c r="AG288" s="133"/>
       <c r="AH288" s="1"/>
     </row>
-    <row r="289" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A289" s="11"/>
       <c r="B289" s="5"/>
       <c r="C289" s="7"/>
@@ -34225,7 +34199,7 @@
       <c r="AG289" s="133"/>
       <c r="AH289" s="1"/>
     </row>
-    <row r="290" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A290" s="11"/>
       <c r="B290" s="5"/>
       <c r="C290" s="7"/>
@@ -34261,7 +34235,7 @@
       <c r="AG290" s="133"/>
       <c r="AH290" s="1"/>
     </row>
-    <row r="291" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A291" s="11"/>
       <c r="B291" s="5"/>
       <c r="C291" s="7"/>
@@ -34297,7 +34271,7 @@
       <c r="AG291" s="133"/>
       <c r="AH291" s="1"/>
     </row>
-    <row r="292" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A292" s="11"/>
       <c r="B292" s="5"/>
       <c r="C292" s="7"/>
@@ -34333,7 +34307,7 @@
       <c r="AG292" s="133"/>
       <c r="AH292" s="1"/>
     </row>
-    <row r="293" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A293" s="11"/>
       <c r="B293" s="5"/>
       <c r="C293" s="7"/>
@@ -34369,7 +34343,7 @@
       <c r="AG293" s="133"/>
       <c r="AH293" s="1"/>
     </row>
-    <row r="294" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A294" s="11"/>
       <c r="B294" s="5"/>
       <c r="C294" s="7"/>
@@ -34405,7 +34379,7 @@
       <c r="AG294" s="133"/>
       <c r="AH294" s="1"/>
     </row>
-    <row r="295" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A295" s="11"/>
       <c r="B295" s="5"/>
       <c r="C295" s="7"/>
@@ -34441,7 +34415,7 @@
       <c r="AG295" s="133"/>
       <c r="AH295" s="1"/>
     </row>
-    <row r="296" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A296" s="11"/>
       <c r="B296" s="5"/>
       <c r="C296" s="7"/>
@@ -34477,7 +34451,7 @@
       <c r="AG296" s="133"/>
       <c r="AH296" s="1"/>
     </row>
-    <row r="297" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A297" s="11"/>
       <c r="B297" s="5"/>
       <c r="C297" s="7"/>
@@ -34513,7 +34487,7 @@
       <c r="AG297" s="133"/>
       <c r="AH297" s="1"/>
     </row>
-    <row r="298" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A298" s="11"/>
       <c r="B298" s="5"/>
       <c r="C298" s="7"/>
@@ -34549,7 +34523,7 @@
       <c r="AG298" s="133"/>
       <c r="AH298" s="1"/>
     </row>
-    <row r="299" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A299" s="11"/>
       <c r="B299" s="5"/>
       <c r="C299" s="7"/>
@@ -34585,7 +34559,7 @@
       <c r="AG299" s="133"/>
       <c r="AH299" s="1"/>
     </row>
-    <row r="300" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A300" s="11"/>
       <c r="B300" s="5"/>
       <c r="C300" s="7"/>
@@ -34621,7 +34595,7 @@
       <c r="AG300" s="133"/>
       <c r="AH300" s="1"/>
     </row>
-    <row r="301" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A301" s="11"/>
       <c r="B301" s="5"/>
       <c r="C301" s="7"/>
@@ -34657,7 +34631,7 @@
       <c r="AG301" s="133"/>
       <c r="AH301" s="1"/>
     </row>
-    <row r="302" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A302" s="11"/>
       <c r="B302" s="5"/>
       <c r="C302" s="7"/>
@@ -34693,7 +34667,7 @@
       <c r="AG302" s="133"/>
       <c r="AH302" s="1"/>
     </row>
-    <row r="303" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A303" s="11"/>
       <c r="B303" s="5"/>
       <c r="C303" s="7"/>
@@ -34729,7 +34703,7 @@
       <c r="AG303" s="133"/>
       <c r="AH303" s="1"/>
     </row>
-    <row r="304" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A304" s="11"/>
       <c r="B304" s="5"/>
       <c r="C304" s="7"/>
@@ -34765,7 +34739,7 @@
       <c r="AG304" s="133"/>
       <c r="AH304" s="1"/>
     </row>
-    <row r="305" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A305" s="11"/>
       <c r="B305" s="5"/>
       <c r="C305" s="7"/>
@@ -34801,7 +34775,7 @@
       <c r="AG305" s="133"/>
       <c r="AH305" s="1"/>
     </row>
-    <row r="306" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A306" s="11"/>
       <c r="B306" s="5"/>
       <c r="C306" s="7"/>
@@ -34837,7 +34811,7 @@
       <c r="AG306" s="133"/>
       <c r="AH306" s="1"/>
     </row>
-    <row r="307" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A307" s="11"/>
       <c r="B307" s="5"/>
       <c r="C307" s="7"/>
@@ -34873,7 +34847,7 @@
       <c r="AG307" s="133"/>
       <c r="AH307" s="1"/>
     </row>
-    <row r="308" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A308" s="11"/>
       <c r="B308" s="5"/>
       <c r="C308" s="7"/>
@@ -34909,7 +34883,7 @@
       <c r="AG308" s="133"/>
       <c r="AH308" s="1"/>
     </row>
-    <row r="309" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A309" s="11"/>
       <c r="B309" s="5"/>
       <c r="C309" s="7"/>
@@ -34945,7 +34919,7 @@
       <c r="AG309" s="133"/>
       <c r="AH309" s="1"/>
     </row>
-    <row r="310" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A310" s="11"/>
       <c r="B310" s="5"/>
       <c r="C310" s="7"/>
@@ -34981,7 +34955,7 @@
       <c r="AG310" s="133"/>
       <c r="AH310" s="1"/>
     </row>
-    <row r="311" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A311" s="11"/>
       <c r="B311" s="5"/>
       <c r="C311" s="7"/>
@@ -35017,7 +34991,7 @@
       <c r="AG311" s="133"/>
       <c r="AH311" s="1"/>
     </row>
-    <row r="312" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A312" s="11"/>
       <c r="B312" s="5"/>
       <c r="C312" s="7"/>
@@ -35053,7 +35027,7 @@
       <c r="AG312" s="133"/>
       <c r="AH312" s="1"/>
     </row>
-    <row r="313" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A313" s="11"/>
       <c r="B313" s="5"/>
       <c r="C313" s="7"/>
@@ -35089,7 +35063,7 @@
       <c r="AG313" s="133"/>
       <c r="AH313" s="1"/>
     </row>
-    <row r="314" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A314" s="11"/>
       <c r="B314" s="5"/>
       <c r="C314" s="7"/>
@@ -35125,7 +35099,7 @@
       <c r="AG314" s="133"/>
       <c r="AH314" s="1"/>
     </row>
-    <row r="315" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A315" s="11"/>
       <c r="B315" s="5"/>
       <c r="C315" s="7"/>
@@ -35161,7 +35135,7 @@
       <c r="AG315" s="133"/>
       <c r="AH315" s="1"/>
     </row>
-    <row r="316" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A316" s="11"/>
       <c r="B316" s="5"/>
       <c r="C316" s="7"/>
@@ -35197,7 +35171,7 @@
       <c r="AG316" s="133"/>
       <c r="AH316" s="1"/>
     </row>
-    <row r="317" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A317" s="11"/>
       <c r="B317" s="5"/>
       <c r="C317" s="7"/>
@@ -35233,7 +35207,7 @@
       <c r="AG317" s="133"/>
       <c r="AH317" s="1"/>
     </row>
-    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A318" s="11"/>
       <c r="B318" s="5"/>
       <c r="C318" s="7"/>
@@ -35269,7 +35243,7 @@
       <c r="AG318" s="133"/>
       <c r="AH318" s="1"/>
     </row>
-    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A319" s="11"/>
       <c r="B319" s="5"/>
       <c r="C319" s="7"/>
@@ -35305,7 +35279,7 @@
       <c r="AG319" s="133"/>
       <c r="AH319" s="1"/>
     </row>
-    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A320" s="11"/>
       <c r="B320" s="5"/>
       <c r="C320" s="7"/>
@@ -35341,7 +35315,7 @@
       <c r="AG320" s="133"/>
       <c r="AH320" s="1"/>
     </row>
-    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A321" s="11"/>
       <c r="B321" s="5"/>
       <c r="C321" s="7"/>
@@ -35377,7 +35351,7 @@
       <c r="AG321" s="133"/>
       <c r="AH321" s="1"/>
     </row>
-    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A322" s="11"/>
       <c r="B322" s="5"/>
       <c r="C322" s="7"/>
@@ -35413,7 +35387,7 @@
       <c r="AG322" s="133"/>
       <c r="AH322" s="1"/>
     </row>
-    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A323" s="11"/>
       <c r="B323" s="5"/>
       <c r="C323" s="7"/>
@@ -35449,7 +35423,7 @@
       <c r="AG323" s="133"/>
       <c r="AH323" s="1"/>
     </row>
-    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A324" s="11"/>
       <c r="B324" s="5"/>
       <c r="C324" s="7"/>
@@ -35485,7 +35459,7 @@
       <c r="AG324" s="133"/>
       <c r="AH324" s="1"/>
     </row>
-    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A325" s="11"/>
       <c r="B325" s="5"/>
       <c r="C325" s="7"/>
@@ -35521,7 +35495,7 @@
       <c r="AG325" s="133"/>
       <c r="AH325" s="1"/>
     </row>
-    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A326" s="11"/>
       <c r="B326" s="5"/>
       <c r="C326" s="7"/>
@@ -35557,7 +35531,7 @@
       <c r="AG326" s="133"/>
       <c r="AH326" s="1"/>
     </row>
-    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A327" s="11"/>
       <c r="B327" s="5"/>
       <c r="C327" s="7"/>
@@ -35593,7 +35567,7 @@
       <c r="AG327" s="133"/>
       <c r="AH327" s="1"/>
     </row>
-    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A328" s="11"/>
       <c r="B328" s="5"/>
       <c r="C328" s="7"/>
@@ -35629,7 +35603,7 @@
       <c r="AG328" s="133"/>
       <c r="AH328" s="1"/>
     </row>
-    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A329" s="11"/>
       <c r="B329" s="5"/>
       <c r="C329" s="7"/>
@@ -35665,7 +35639,7 @@
       <c r="AG329" s="133"/>
       <c r="AH329" s="1"/>
     </row>
-    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A330" s="11"/>
       <c r="B330" s="5"/>
       <c r="C330" s="7"/>
@@ -35701,7 +35675,7 @@
       <c r="AG330" s="133"/>
       <c r="AH330" s="1"/>
     </row>
-    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A331" s="11"/>
       <c r="B331" s="5"/>
       <c r="C331" s="7"/>
@@ -35737,7 +35711,7 @@
       <c r="AG331" s="133"/>
       <c r="AH331" s="1"/>
     </row>
-    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A332" s="11"/>
       <c r="B332" s="5"/>
       <c r="C332" s="7"/>
@@ -35773,7 +35747,7 @@
       <c r="AG332" s="133"/>
       <c r="AH332" s="1"/>
     </row>
-    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A333" s="11"/>
       <c r="B333" s="5"/>
       <c r="C333" s="7"/>
@@ -35809,7 +35783,7 @@
       <c r="AG333" s="133"/>
       <c r="AH333" s="1"/>
     </row>
-    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A334" s="11"/>
       <c r="B334" s="5"/>
       <c r="C334" s="7"/>
@@ -35845,7 +35819,7 @@
       <c r="AG334" s="133"/>
       <c r="AH334" s="1"/>
     </row>
-    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A335" s="11"/>
       <c r="B335" s="5"/>
       <c r="C335" s="7"/>
@@ -35881,7 +35855,7 @@
       <c r="AG335" s="133"/>
       <c r="AH335" s="1"/>
     </row>
-    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A336" s="11"/>
       <c r="B336" s="5"/>
       <c r="C336" s="7"/>
@@ -35917,7 +35891,7 @@
       <c r="AG336" s="133"/>
       <c r="AH336" s="1"/>
     </row>
-    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A337" s="11"/>
       <c r="B337" s="5"/>
       <c r="C337" s="7"/>
@@ -35953,7 +35927,7 @@
       <c r="AG337" s="133"/>
       <c r="AH337" s="1"/>
     </row>
-    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A338" s="11"/>
       <c r="B338" s="5"/>
       <c r="C338" s="7"/>
@@ -35989,7 +35963,7 @@
       <c r="AG338" s="133"/>
       <c r="AH338" s="1"/>
     </row>
-    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A339" s="11"/>
       <c r="B339" s="5"/>
       <c r="C339" s="7"/>
@@ -36025,7 +35999,7 @@
       <c r="AG339" s="133"/>
       <c r="AH339" s="1"/>
     </row>
-    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A340" s="11"/>
       <c r="B340" s="5"/>
       <c r="C340" s="7"/>
@@ -36061,7 +36035,7 @@
       <c r="AG340" s="133"/>
       <c r="AH340" s="1"/>
     </row>
-    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A341" s="11"/>
       <c r="B341" s="5"/>
       <c r="C341" s="7"/>
@@ -36097,7 +36071,7 @@
       <c r="AG341" s="133"/>
       <c r="AH341" s="1"/>
     </row>
-    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A342" s="11"/>
       <c r="B342" s="5"/>
       <c r="C342" s="7"/>
@@ -36133,7 +36107,7 @@
       <c r="AG342" s="133"/>
       <c r="AH342" s="1"/>
     </row>
-    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A343" s="11"/>
       <c r="B343" s="5"/>
       <c r="C343" s="7"/>
@@ -36169,7 +36143,7 @@
       <c r="AG343" s="133"/>
       <c r="AH343" s="1"/>
     </row>
-    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A344" s="11"/>
       <c r="B344" s="5"/>
       <c r="C344" s="7"/>
@@ -36205,7 +36179,7 @@
       <c r="AG344" s="133"/>
       <c r="AH344" s="1"/>
     </row>
-    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A345" s="11"/>
       <c r="B345" s="5"/>
       <c r="C345" s="7"/>
@@ -36241,7 +36215,7 @@
       <c r="AG345" s="133"/>
       <c r="AH345" s="1"/>
     </row>
-    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A346" s="11"/>
       <c r="B346" s="5"/>
       <c r="C346" s="7"/>
@@ -36277,7 +36251,7 @@
       <c r="AG346" s="133"/>
       <c r="AH346" s="1"/>
     </row>
-    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A347" s="11"/>
       <c r="B347" s="5"/>
       <c r="C347" s="7"/>
@@ -36313,7 +36287,7 @@
       <c r="AG347" s="133"/>
       <c r="AH347" s="1"/>
     </row>
-    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A348" s="11"/>
       <c r="B348" s="5"/>
       <c r="C348" s="7"/>
@@ -36349,7 +36323,7 @@
       <c r="AG348" s="133"/>
       <c r="AH348" s="1"/>
     </row>
-    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A349" s="11"/>
       <c r="B349" s="5"/>
       <c r="C349" s="7"/>
@@ -36385,7 +36359,7 @@
       <c r="AG349" s="133"/>
       <c r="AH349" s="1"/>
     </row>
-    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A350" s="11"/>
       <c r="B350" s="5"/>
       <c r="C350" s="7"/>
@@ -36421,7 +36395,7 @@
       <c r="AG350" s="133"/>
       <c r="AH350" s="1"/>
     </row>
-    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A351" s="11"/>
       <c r="B351" s="5"/>
       <c r="C351" s="7"/>
@@ -36457,7 +36431,7 @@
       <c r="AG351" s="133"/>
       <c r="AH351" s="1"/>
     </row>
-    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A352" s="11"/>
       <c r="B352" s="5"/>
       <c r="C352" s="7"/>
@@ -36493,7 +36467,7 @@
       <c r="AG352" s="133"/>
       <c r="AH352" s="1"/>
     </row>
-    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A353" s="11"/>
       <c r="B353" s="5"/>
       <c r="C353" s="7"/>
@@ -36529,7 +36503,7 @@
       <c r="AG353" s="133"/>
       <c r="AH353" s="1"/>
     </row>
-    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A354" s="11"/>
       <c r="B354" s="5"/>
       <c r="C354" s="7"/>
@@ -36565,7 +36539,7 @@
       <c r="AG354" s="133"/>
       <c r="AH354" s="1"/>
     </row>
-    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A355" s="11"/>
       <c r="B355" s="5"/>
       <c r="C355" s="7"/>
@@ -36601,7 +36575,7 @@
       <c r="AG355" s="133"/>
       <c r="AH355" s="1"/>
     </row>
-    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A356" s="11"/>
       <c r="B356" s="5"/>
       <c r="C356" s="7"/>
@@ -36637,7 +36611,7 @@
       <c r="AG356" s="133"/>
       <c r="AH356" s="1"/>
     </row>
-    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A357" s="11"/>
       <c r="B357" s="5"/>
       <c r="C357" s="7"/>
@@ -36673,7 +36647,7 @@
       <c r="AG357" s="133"/>
       <c r="AH357" s="1"/>
     </row>
-    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A358" s="11"/>
       <c r="B358" s="5"/>
       <c r="C358" s="7"/>
@@ -36709,7 +36683,7 @@
       <c r="AG358" s="133"/>
       <c r="AH358" s="1"/>
     </row>
-    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A359" s="11"/>
       <c r="B359" s="5"/>
       <c r="C359" s="7"/>
@@ -36745,7 +36719,7 @@
       <c r="AG359" s="133"/>
       <c r="AH359" s="1"/>
     </row>
-    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A360" s="11"/>
       <c r="B360" s="5"/>
       <c r="C360" s="7"/>
@@ -36781,7 +36755,7 @@
       <c r="AG360" s="133"/>
       <c r="AH360" s="1"/>
     </row>
-    <row r="361" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A361" s="11"/>
       <c r="B361" s="5"/>
       <c r="C361" s="7"/>
@@ -36817,7 +36791,7 @@
       <c r="AG361" s="133"/>
       <c r="AH361" s="1"/>
     </row>
-    <row r="362" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A362" s="11"/>
       <c r="B362" s="5"/>
       <c r="C362" s="7"/>
@@ -36853,7 +36827,7 @@
       <c r="AG362" s="133"/>
       <c r="AH362" s="1"/>
     </row>
-    <row r="363" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A363" s="11"/>
       <c r="B363" s="5"/>
       <c r="C363" s="7"/>
@@ -36889,7 +36863,7 @@
       <c r="AG363" s="133"/>
       <c r="AH363" s="1"/>
     </row>
-    <row r="364" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A364" s="11"/>
       <c r="B364" s="5"/>
       <c r="C364" s="7"/>
@@ -36925,7 +36899,7 @@
       <c r="AG364" s="133"/>
       <c r="AH364" s="1"/>
     </row>
-    <row r="365" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A365" s="11"/>
       <c r="B365" s="5"/>
       <c r="C365" s="7"/>
@@ -36961,7 +36935,7 @@
       <c r="AG365" s="133"/>
       <c r="AH365" s="1"/>
     </row>
-    <row r="366" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A366" s="11"/>
       <c r="B366" s="5"/>
       <c r="C366" s="7"/>
@@ -36997,7 +36971,7 @@
       <c r="AG366" s="133"/>
       <c r="AH366" s="1"/>
     </row>
-    <row r="367" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A367" s="11"/>
       <c r="B367" s="5"/>
       <c r="C367" s="7"/>
@@ -37033,7 +37007,7 @@
       <c r="AG367" s="133"/>
       <c r="AH367" s="1"/>
     </row>
-    <row r="368" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A368" s="11"/>
       <c r="B368" s="5"/>
       <c r="C368" s="7"/>
@@ -37069,7 +37043,7 @@
       <c r="AG368" s="133"/>
       <c r="AH368" s="1"/>
     </row>
-    <row r="369" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A369" s="11"/>
       <c r="B369" s="5"/>
       <c r="C369" s="7"/>
@@ -37105,7 +37079,7 @@
       <c r="AG369" s="133"/>
       <c r="AH369" s="1"/>
     </row>
-    <row r="370" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A370" s="11"/>
       <c r="B370" s="5"/>
       <c r="C370" s="7"/>
@@ -37141,7 +37115,7 @@
       <c r="AG370" s="133"/>
       <c r="AH370" s="1"/>
     </row>
-    <row r="371" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A371" s="11"/>
       <c r="B371" s="5"/>
       <c r="C371" s="7"/>
@@ -37177,7 +37151,7 @@
       <c r="AG371" s="133"/>
       <c r="AH371" s="1"/>
     </row>
-    <row r="372" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A372" s="11"/>
       <c r="B372" s="5"/>
       <c r="C372" s="7"/>
@@ -37213,7 +37187,7 @@
       <c r="AG372" s="133"/>
       <c r="AH372" s="1"/>
     </row>
-    <row r="373" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A373" s="11"/>
       <c r="B373" s="5"/>
       <c r="C373" s="7"/>
@@ -37249,7 +37223,7 @@
       <c r="AG373" s="133"/>
       <c r="AH373" s="1"/>
     </row>
-    <row r="374" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A374" s="11"/>
       <c r="B374" s="5"/>
       <c r="C374" s="7"/>
@@ -37285,7 +37259,7 @@
       <c r="AG374" s="133"/>
       <c r="AH374" s="1"/>
     </row>
-    <row r="375" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A375" s="11"/>
       <c r="B375" s="5"/>
       <c r="C375" s="7"/>
@@ -37321,7 +37295,7 @@
       <c r="AG375" s="133"/>
       <c r="AH375" s="1"/>
     </row>
-    <row r="376" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A376" s="11"/>
       <c r="B376" s="5"/>
       <c r="C376" s="7"/>
@@ -37357,7 +37331,7 @@
       <c r="AG376" s="133"/>
       <c r="AH376" s="1"/>
     </row>
-    <row r="377" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A377" s="11"/>
       <c r="B377" s="5"/>
       <c r="C377" s="7"/>
@@ -37393,7 +37367,7 @@
       <c r="AG377" s="133"/>
       <c r="AH377" s="1"/>
     </row>
-    <row r="378" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A378" s="11"/>
       <c r="B378" s="5"/>
       <c r="C378" s="7"/>
@@ -37429,7 +37403,7 @@
       <c r="AG378" s="133"/>
       <c r="AH378" s="1"/>
     </row>
-    <row r="379" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A379" s="11"/>
       <c r="B379" s="5"/>
       <c r="C379" s="7"/>
@@ -37465,7 +37439,7 @@
       <c r="AG379" s="133"/>
       <c r="AH379" s="1"/>
     </row>
-    <row r="380" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A380" s="11"/>
       <c r="B380" s="5"/>
       <c r="C380" s="7"/>
@@ -37501,7 +37475,7 @@
       <c r="AG380" s="133"/>
       <c r="AH380" s="1"/>
     </row>
-    <row r="381" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A381" s="11"/>
       <c r="B381" s="5"/>
       <c r="C381" s="7"/>
@@ -37537,7 +37511,7 @@
       <c r="AG381" s="133"/>
       <c r="AH381" s="1"/>
     </row>
-    <row r="382" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A382" s="11"/>
       <c r="B382" s="5"/>
       <c r="C382" s="7"/>
@@ -37573,7 +37547,7 @@
       <c r="AG382" s="133"/>
       <c r="AH382" s="1"/>
     </row>
-    <row r="383" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A383" s="11"/>
       <c r="B383" s="5"/>
       <c r="C383" s="7"/>
@@ -37609,7 +37583,7 @@
       <c r="AG383" s="133"/>
       <c r="AH383" s="1"/>
     </row>
-    <row r="384" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A384" s="11"/>
       <c r="B384" s="5"/>
       <c r="C384" s="7"/>
@@ -37645,7 +37619,7 @@
       <c r="AG384" s="133"/>
       <c r="AH384" s="1"/>
     </row>
-    <row r="385" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A385" s="11"/>
       <c r="B385" s="5"/>
       <c r="C385" s="7"/>
@@ -37681,7 +37655,7 @@
       <c r="AG385" s="133"/>
       <c r="AH385" s="1"/>
     </row>
-    <row r="386" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A386" s="11"/>
       <c r="B386" s="5"/>
       <c r="C386" s="7"/>
@@ -37717,7 +37691,7 @@
       <c r="AG386" s="133"/>
       <c r="AH386" s="1"/>
     </row>
-    <row r="387" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A387" s="11"/>
       <c r="B387" s="5"/>
       <c r="C387" s="7"/>
@@ -37753,7 +37727,7 @@
       <c r="AG387" s="133"/>
       <c r="AH387" s="1"/>
     </row>
-    <row r="388" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A388" s="11"/>
       <c r="B388" s="5"/>
       <c r="C388" s="7"/>
@@ -37789,7 +37763,7 @@
       <c r="AG388" s="133"/>
       <c r="AH388" s="1"/>
     </row>
-    <row r="389" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A389" s="11"/>
       <c r="B389" s="5"/>
       <c r="C389" s="7"/>
@@ -37825,7 +37799,7 @@
       <c r="AG389" s="133"/>
       <c r="AH389" s="1"/>
     </row>
-    <row r="390" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A390" s="11"/>
       <c r="B390" s="5"/>
       <c r="C390" s="7"/>
@@ -37861,7 +37835,7 @@
       <c r="AG390" s="133"/>
       <c r="AH390" s="1"/>
     </row>
-    <row r="391" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A391" s="11"/>
       <c r="B391" s="5"/>
       <c r="C391" s="7"/>
@@ -37897,7 +37871,7 @@
       <c r="AG391" s="133"/>
       <c r="AH391" s="1"/>
     </row>
-    <row r="392" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A392" s="11"/>
       <c r="B392" s="5"/>
       <c r="C392" s="7"/>
@@ -37933,7 +37907,7 @@
       <c r="AG392" s="133"/>
       <c r="AH392" s="1"/>
     </row>
-    <row r="393" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A393" s="11"/>
       <c r="B393" s="5"/>
       <c r="C393" s="7"/>
@@ -37969,7 +37943,7 @@
       <c r="AG393" s="133"/>
       <c r="AH393" s="1"/>
     </row>
-    <row r="394" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A394" s="11"/>
       <c r="B394" s="5"/>
       <c r="C394" s="7"/>
@@ -38005,7 +37979,7 @@
       <c r="AG394" s="133"/>
       <c r="AH394" s="1"/>
     </row>
-    <row r="395" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A395" s="11"/>
       <c r="B395" s="5"/>
       <c r="C395" s="7"/>
@@ -38041,7 +38015,7 @@
       <c r="AG395" s="133"/>
       <c r="AH395" s="1"/>
     </row>
-    <row r="396" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A396" s="11"/>
       <c r="B396" s="5"/>
       <c r="C396" s="7"/>
@@ -38077,7 +38051,7 @@
       <c r="AG396" s="133"/>
       <c r="AH396" s="1"/>
     </row>
-    <row r="397" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A397" s="11"/>
       <c r="B397" s="5"/>
       <c r="C397" s="7"/>
@@ -38113,7 +38087,7 @@
       <c r="AG397" s="133"/>
       <c r="AH397" s="1"/>
     </row>
-    <row r="398" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A398" s="11"/>
       <c r="B398" s="5"/>
       <c r="C398" s="7"/>
@@ -38149,7 +38123,7 @@
       <c r="AG398" s="133"/>
       <c r="AH398" s="1"/>
     </row>
-    <row r="399" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A399" s="11"/>
       <c r="B399" s="5"/>
       <c r="C399" s="7"/>
@@ -38185,7 +38159,7 @@
       <c r="AG399" s="133"/>
       <c r="AH399" s="1"/>
     </row>
-    <row r="400" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A400" s="11"/>
       <c r="B400" s="5"/>
       <c r="C400" s="7"/>
@@ -38221,7 +38195,7 @@
       <c r="AG400" s="133"/>
       <c r="AH400" s="1"/>
     </row>
-    <row r="401" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A401" s="11"/>
       <c r="B401" s="5"/>
       <c r="C401" s="7"/>
@@ -38257,7 +38231,7 @@
       <c r="AG401" s="133"/>
       <c r="AH401" s="1"/>
     </row>
-    <row r="402" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A402" s="11"/>
       <c r="B402" s="5"/>
       <c r="C402" s="7"/>
@@ -38293,7 +38267,7 @@
       <c r="AG402" s="133"/>
       <c r="AH402" s="1"/>
     </row>
-    <row r="403" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A403" s="11"/>
       <c r="B403" s="5"/>
       <c r="C403" s="7"/>
@@ -38329,7 +38303,7 @@
       <c r="AG403" s="133"/>
       <c r="AH403" s="1"/>
     </row>
-    <row r="404" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A404" s="11"/>
       <c r="B404" s="5"/>
       <c r="C404" s="7"/>
@@ -38365,7 +38339,7 @@
       <c r="AG404" s="133"/>
       <c r="AH404" s="1"/>
     </row>
-    <row r="405" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A405" s="11"/>
       <c r="B405" s="5"/>
       <c r="C405" s="7"/>
@@ -38401,7 +38375,7 @@
       <c r="AG405" s="133"/>
       <c r="AH405" s="1"/>
     </row>
-    <row r="406" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A406" s="11"/>
       <c r="B406" s="5"/>
       <c r="C406" s="7"/>
@@ -38437,7 +38411,7 @@
       <c r="AG406" s="133"/>
       <c r="AH406" s="1"/>
     </row>
-    <row r="407" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A407" s="11"/>
       <c r="B407" s="5"/>
       <c r="C407" s="7"/>
@@ -38473,7 +38447,7 @@
       <c r="AG407" s="133"/>
       <c r="AH407" s="1"/>
     </row>
-    <row r="408" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A408" s="11"/>
       <c r="B408" s="5"/>
       <c r="C408" s="7"/>
@@ -38509,7 +38483,7 @@
       <c r="AG408" s="133"/>
       <c r="AH408" s="1"/>
     </row>
-    <row r="409" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A409" s="11"/>
       <c r="B409" s="5"/>
       <c r="C409" s="7"/>
@@ -38545,7 +38519,7 @@
       <c r="AG409" s="133"/>
       <c r="AH409" s="1"/>
     </row>
-    <row r="410" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A410" s="11"/>
       <c r="B410" s="5"/>
       <c r="C410" s="7"/>
@@ -38581,7 +38555,7 @@
       <c r="AG410" s="133"/>
       <c r="AH410" s="1"/>
     </row>
-    <row r="411" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A411" s="11"/>
       <c r="B411" s="5"/>
       <c r="C411" s="7"/>
@@ -38617,7 +38591,7 @@
       <c r="AG411" s="133"/>
       <c r="AH411" s="1"/>
     </row>
-    <row r="412" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A412" s="11"/>
       <c r="B412" s="5"/>
       <c r="C412" s="7"/>
@@ -38653,7 +38627,7 @@
       <c r="AG412" s="133"/>
       <c r="AH412" s="1"/>
     </row>
-    <row r="413" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A413" s="11"/>
       <c r="B413" s="5"/>
       <c r="C413" s="7"/>
@@ -38689,7 +38663,7 @@
       <c r="AG413" s="133"/>
       <c r="AH413" s="1"/>
     </row>
-    <row r="414" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A414" s="11"/>
       <c r="B414" s="5"/>
       <c r="C414" s="7"/>
@@ -38725,7 +38699,7 @@
       <c r="AG414" s="133"/>
       <c r="AH414" s="1"/>
     </row>
-    <row r="415" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A415" s="11"/>
       <c r="B415" s="5"/>
       <c r="C415" s="7"/>
@@ -38761,7 +38735,7 @@
       <c r="AG415" s="133"/>
       <c r="AH415" s="1"/>
     </row>
-    <row r="416" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A416" s="11"/>
       <c r="B416" s="5"/>
       <c r="C416" s="7"/>
@@ -38797,7 +38771,7 @@
       <c r="AG416" s="133"/>
       <c r="AH416" s="1"/>
     </row>
-    <row r="417" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A417" s="11"/>
       <c r="B417" s="5"/>
       <c r="C417" s="7"/>
@@ -38833,7 +38807,7 @@
       <c r="AG417" s="133"/>
       <c r="AH417" s="1"/>
     </row>
-    <row r="418" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A418" s="11"/>
       <c r="B418" s="5"/>
       <c r="C418" s="7"/>
@@ -38869,7 +38843,7 @@
       <c r="AG418" s="133"/>
       <c r="AH418" s="1"/>
     </row>
-    <row r="419" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A419" s="11"/>
       <c r="B419" s="5"/>
       <c r="C419" s="7"/>
@@ -38905,7 +38879,7 @@
       <c r="AG419" s="133"/>
       <c r="AH419" s="1"/>
     </row>
-    <row r="420" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A420" s="11"/>
       <c r="B420" s="5"/>
       <c r="C420" s="7"/>
@@ -38941,7 +38915,7 @@
       <c r="AG420" s="133"/>
       <c r="AH420" s="1"/>
     </row>
-    <row r="421" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A421" s="11"/>
       <c r="B421" s="5"/>
       <c r="C421" s="7"/>
@@ -38977,7 +38951,7 @@
       <c r="AG421" s="133"/>
       <c r="AH421" s="1"/>
     </row>
-    <row r="422" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A422" s="11"/>
       <c r="B422" s="5"/>
       <c r="C422" s="7"/>
@@ -39013,7 +38987,7 @@
       <c r="AG422" s="133"/>
       <c r="AH422" s="1"/>
     </row>
-    <row r="423" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A423" s="11"/>
       <c r="B423" s="5"/>
       <c r="C423" s="7"/>
@@ -39049,7 +39023,7 @@
       <c r="AG423" s="133"/>
       <c r="AH423" s="1"/>
     </row>
-    <row r="424" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A424" s="11"/>
       <c r="B424" s="5"/>
       <c r="C424" s="7"/>
@@ -39085,7 +39059,7 @@
       <c r="AG424" s="133"/>
       <c r="AH424" s="1"/>
     </row>
-    <row r="425" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A425" s="11"/>
       <c r="B425" s="5"/>
       <c r="C425" s="7"/>
@@ -39121,7 +39095,7 @@
       <c r="AG425" s="133"/>
       <c r="AH425" s="1"/>
     </row>
-    <row r="426" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A426" s="11"/>
       <c r="B426" s="5"/>
       <c r="C426" s="7"/>
@@ -39157,7 +39131,7 @@
       <c r="AG426" s="133"/>
       <c r="AH426" s="1"/>
     </row>
-    <row r="427" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A427" s="11"/>
       <c r="B427" s="5"/>
       <c r="C427" s="7"/>
@@ -39193,7 +39167,7 @@
       <c r="AG427" s="133"/>
       <c r="AH427" s="1"/>
     </row>
-    <row r="428" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A428" s="11"/>
       <c r="B428" s="5"/>
       <c r="C428" s="7"/>
@@ -39229,7 +39203,7 @@
       <c r="AG428" s="133"/>
       <c r="AH428" s="1"/>
     </row>
-    <row r="429" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A429" s="11"/>
       <c r="B429" s="5"/>
       <c r="C429" s="7"/>
@@ -39265,7 +39239,7 @@
       <c r="AG429" s="133"/>
       <c r="AH429" s="1"/>
     </row>
-    <row r="430" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A430" s="11"/>
       <c r="B430" s="5"/>
       <c r="C430" s="7"/>
@@ -39301,7 +39275,7 @@
       <c r="AG430" s="133"/>
       <c r="AH430" s="1"/>
     </row>
-    <row r="431" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A431" s="11"/>
       <c r="B431" s="5"/>
       <c r="C431" s="7"/>
@@ -39337,7 +39311,7 @@
       <c r="AG431" s="133"/>
       <c r="AH431" s="1"/>
     </row>
-    <row r="432" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A432" s="11"/>
       <c r="B432" s="5"/>
       <c r="C432" s="7"/>
@@ -39373,7 +39347,7 @@
       <c r="AG432" s="133"/>
       <c r="AH432" s="1"/>
     </row>
-    <row r="433" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A433" s="11"/>
       <c r="B433" s="5"/>
       <c r="C433" s="7"/>
@@ -39409,7 +39383,7 @@
       <c r="AG433" s="133"/>
       <c r="AH433" s="1"/>
     </row>
-    <row r="434" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A434" s="11"/>
       <c r="B434" s="5"/>
       <c r="C434" s="7"/>
@@ -39445,7 +39419,7 @@
       <c r="AG434" s="133"/>
       <c r="AH434" s="1"/>
     </row>
-    <row r="435" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A435" s="11"/>
       <c r="B435" s="5"/>
       <c r="C435" s="7"/>
@@ -39481,7 +39455,7 @@
       <c r="AG435" s="133"/>
       <c r="AH435" s="1"/>
     </row>
-    <row r="436" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A436" s="11"/>
       <c r="B436" s="5"/>
       <c r="C436" s="7"/>
@@ -39517,7 +39491,7 @@
       <c r="AG436" s="133"/>
       <c r="AH436" s="1"/>
     </row>
-    <row r="437" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A437" s="11"/>
       <c r="B437" s="5"/>
       <c r="C437" s="7"/>
@@ -39553,7 +39527,7 @@
       <c r="AG437" s="133"/>
       <c r="AH437" s="1"/>
     </row>
-    <row r="438" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A438" s="11"/>
       <c r="B438" s="5"/>
       <c r="C438" s="7"/>
@@ -39589,7 +39563,7 @@
       <c r="AG438" s="133"/>
       <c r="AH438" s="1"/>
     </row>
-    <row r="439" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A439" s="11"/>
       <c r="B439" s="5"/>
       <c r="C439" s="7"/>
@@ -39625,7 +39599,7 @@
       <c r="AG439" s="133"/>
       <c r="AH439" s="1"/>
     </row>
-    <row r="440" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A440" s="11"/>
       <c r="B440" s="5"/>
       <c r="C440" s="7"/>
@@ -39661,7 +39635,7 @@
       <c r="AG440" s="133"/>
       <c r="AH440" s="1"/>
     </row>
-    <row r="441" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A441" s="11"/>
       <c r="B441" s="5"/>
       <c r="C441" s="7"/>
@@ -39697,7 +39671,7 @@
       <c r="AG441" s="133"/>
       <c r="AH441" s="1"/>
     </row>
-    <row r="442" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A442" s="11"/>
       <c r="B442" s="5"/>
       <c r="C442" s="7"/>
@@ -39733,7 +39707,7 @@
       <c r="AG442" s="133"/>
       <c r="AH442" s="1"/>
     </row>
-    <row r="443" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A443" s="11"/>
       <c r="B443" s="5"/>
       <c r="C443" s="7"/>
@@ -39769,7 +39743,7 @@
       <c r="AG443" s="133"/>
       <c r="AH443" s="1"/>
     </row>
-    <row r="444" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A444" s="11"/>
       <c r="B444" s="5"/>
       <c r="C444" s="7"/>
@@ -39805,7 +39779,7 @@
       <c r="AG444" s="133"/>
       <c r="AH444" s="1"/>
     </row>
-    <row r="445" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A445" s="11"/>
       <c r="B445" s="5"/>
       <c r="C445" s="7"/>
@@ -39841,7 +39815,7 @@
       <c r="AG445" s="133"/>
       <c r="AH445" s="1"/>
     </row>
-    <row r="446" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A446" s="11"/>
       <c r="B446" s="5"/>
       <c r="C446" s="7"/>
@@ -39877,7 +39851,7 @@
       <c r="AG446" s="133"/>
       <c r="AH446" s="1"/>
     </row>
-    <row r="447" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A447" s="11"/>
       <c r="B447" s="5"/>
       <c r="C447" s="7"/>
@@ -39913,7 +39887,7 @@
       <c r="AG447" s="133"/>
       <c r="AH447" s="1"/>
     </row>
-    <row r="448" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A448" s="11"/>
       <c r="B448" s="5"/>
       <c r="C448" s="7"/>
@@ -39949,7 +39923,7 @@
       <c r="AG448" s="133"/>
       <c r="AH448" s="1"/>
     </row>
-    <row r="449" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A449" s="11"/>
       <c r="B449" s="5"/>
       <c r="C449" s="7"/>
@@ -39985,7 +39959,7 @@
       <c r="AG449" s="133"/>
       <c r="AH449" s="1"/>
     </row>
-    <row r="450" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A450" s="11"/>
       <c r="B450" s="5"/>
       <c r="C450" s="7"/>
@@ -40021,7 +39995,7 @@
       <c r="AG450" s="133"/>
       <c r="AH450" s="1"/>
     </row>
-    <row r="451" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A451" s="11"/>
       <c r="B451" s="5"/>
       <c r="C451" s="7"/>
@@ -40057,7 +40031,7 @@
       <c r="AG451" s="133"/>
       <c r="AH451" s="1"/>
     </row>
-    <row r="452" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A452" s="11"/>
       <c r="B452" s="5"/>
       <c r="C452" s="7"/>
@@ -40093,7 +40067,7 @@
       <c r="AG452" s="133"/>
       <c r="AH452" s="1"/>
     </row>
-    <row r="453" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A453" s="11"/>
       <c r="B453" s="5"/>
       <c r="C453" s="7"/>
@@ -40129,7 +40103,7 @@
       <c r="AG453" s="133"/>
       <c r="AH453" s="1"/>
     </row>
-    <row r="454" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A454" s="11"/>
       <c r="B454" s="5"/>
       <c r="C454" s="7"/>
@@ -40165,7 +40139,7 @@
       <c r="AG454" s="133"/>
       <c r="AH454" s="1"/>
     </row>
-    <row r="455" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A455" s="11"/>
       <c r="B455" s="5"/>
       <c r="C455" s="7"/>
@@ -40201,7 +40175,7 @@
       <c r="AG455" s="133"/>
       <c r="AH455" s="1"/>
     </row>
-    <row r="456" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A456" s="11"/>
       <c r="B456" s="5"/>
       <c r="C456" s="7"/>
@@ -40237,7 +40211,7 @@
       <c r="AG456" s="133"/>
       <c r="AH456" s="1"/>
     </row>
-    <row r="457" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A457" s="11"/>
       <c r="B457" s="5"/>
       <c r="C457" s="7"/>
@@ -40273,7 +40247,7 @@
       <c r="AG457" s="133"/>
       <c r="AH457" s="1"/>
     </row>
-    <row r="458" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A458" s="11"/>
       <c r="B458" s="5"/>
       <c r="C458" s="7"/>
@@ -40309,7 +40283,7 @@
       <c r="AG458" s="133"/>
       <c r="AH458" s="1"/>
     </row>
-    <row r="459" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A459" s="11"/>
       <c r="B459" s="5"/>
       <c r="C459" s="7"/>
@@ -40345,7 +40319,7 @@
       <c r="AG459" s="133"/>
       <c r="AH459" s="1"/>
     </row>
-    <row r="460" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A460" s="11"/>
       <c r="B460" s="5"/>
       <c r="C460" s="7"/>
@@ -40381,7 +40355,7 @@
       <c r="AG460" s="133"/>
       <c r="AH460" s="1"/>
     </row>
-    <row r="461" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A461" s="11"/>
       <c r="B461" s="5"/>
       <c r="C461" s="7"/>
@@ -40417,7 +40391,7 @@
       <c r="AG461" s="133"/>
       <c r="AH461" s="1"/>
     </row>
-    <row r="462" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A462" s="11"/>
       <c r="B462" s="5"/>
       <c r="C462" s="7"/>
@@ -40453,7 +40427,7 @@
       <c r="AG462" s="133"/>
       <c r="AH462" s="1"/>
     </row>
-    <row r="463" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A463" s="11"/>
       <c r="B463" s="5"/>
       <c r="C463" s="7"/>
@@ -40489,7 +40463,7 @@
       <c r="AG463" s="133"/>
       <c r="AH463" s="1"/>
     </row>
-    <row r="464" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A464" s="11"/>
       <c r="B464" s="5"/>
       <c r="C464" s="7"/>
@@ -40525,7 +40499,7 @@
       <c r="AG464" s="133"/>
       <c r="AH464" s="1"/>
     </row>
-    <row r="465" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A465" s="11"/>
       <c r="B465" s="5"/>
       <c r="C465" s="7"/>
@@ -40561,7 +40535,7 @@
       <c r="AG465" s="133"/>
       <c r="AH465" s="1"/>
     </row>
-    <row r="466" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A466" s="11"/>
       <c r="B466" s="5"/>
       <c r="C466" s="7"/>
@@ -40597,7 +40571,7 @@
       <c r="AG466" s="133"/>
       <c r="AH466" s="1"/>
     </row>
-    <row r="467" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A467" s="11"/>
       <c r="B467" s="5"/>
       <c r="C467" s="7"/>
@@ -40633,7 +40607,7 @@
       <c r="AG467" s="133"/>
       <c r="AH467" s="1"/>
     </row>
-    <row r="468" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A468" s="11"/>
       <c r="B468" s="5"/>
       <c r="C468" s="7"/>
@@ -40669,7 +40643,7 @@
       <c r="AG468" s="133"/>
       <c r="AH468" s="1"/>
     </row>
-    <row r="469" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A469" s="11"/>
       <c r="B469" s="5"/>
       <c r="C469" s="7"/>
@@ -40705,7 +40679,7 @@
       <c r="AG469" s="133"/>
       <c r="AH469" s="1"/>
     </row>
-    <row r="470" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A470" s="11"/>
       <c r="B470" s="5"/>
       <c r="C470" s="7"/>
@@ -40741,7 +40715,7 @@
       <c r="AG470" s="133"/>
       <c r="AH470" s="1"/>
     </row>
-    <row r="471" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A471" s="11"/>
       <c r="B471" s="5"/>
       <c r="C471" s="7"/>
@@ -40777,7 +40751,7 @@
       <c r="AG471" s="133"/>
       <c r="AH471" s="1"/>
     </row>
-    <row r="472" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A472" s="11"/>
       <c r="B472" s="5"/>
       <c r="C472" s="7"/>
@@ -40813,7 +40787,7 @@
       <c r="AG472" s="133"/>
       <c r="AH472" s="1"/>
     </row>
-    <row r="473" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A473" s="11"/>
       <c r="B473" s="5"/>
       <c r="C473" s="7"/>
@@ -40849,7 +40823,7 @@
       <c r="AG473" s="133"/>
       <c r="AH473" s="1"/>
     </row>
-    <row r="474" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A474" s="11"/>
       <c r="B474" s="5"/>
       <c r="C474" s="7"/>
@@ -40885,7 +40859,7 @@
       <c r="AG474" s="133"/>
       <c r="AH474" s="1"/>
     </row>
-    <row r="475" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A475" s="11"/>
       <c r="B475" s="5"/>
       <c r="C475" s="7"/>
@@ -40921,7 +40895,7 @@
       <c r="AG475" s="133"/>
       <c r="AH475" s="1"/>
     </row>
-    <row r="476" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A476" s="11"/>
       <c r="B476" s="5"/>
       <c r="C476" s="7"/>
@@ -40957,7 +40931,7 @@
       <c r="AG476" s="133"/>
       <c r="AH476" s="1"/>
     </row>
-    <row r="477" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A477" s="11"/>
       <c r="B477" s="5"/>
       <c r="C477" s="7"/>
@@ -40993,7 +40967,7 @@
       <c r="AG477" s="133"/>
       <c r="AH477" s="1"/>
     </row>
-    <row r="478" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A478" s="11"/>
       <c r="B478" s="5"/>
       <c r="C478" s="7"/>
@@ -41029,7 +41003,7 @@
       <c r="AG478" s="133"/>
       <c r="AH478" s="1"/>
     </row>
-    <row r="479" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A479" s="11"/>
       <c r="B479" s="5"/>
       <c r="C479" s="7"/>
@@ -41065,7 +41039,7 @@
       <c r="AG479" s="133"/>
       <c r="AH479" s="1"/>
     </row>
-    <row r="480" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A480" s="11"/>
       <c r="B480" s="5"/>
       <c r="C480" s="7"/>
@@ -41101,7 +41075,7 @@
       <c r="AG480" s="133"/>
       <c r="AH480" s="1"/>
     </row>
-    <row r="481" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A481" s="11"/>
       <c r="B481" s="5"/>
       <c r="C481" s="7"/>
@@ -41137,7 +41111,7 @@
       <c r="AG481" s="133"/>
       <c r="AH481" s="1"/>
     </row>
-    <row r="482" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A482" s="11"/>
       <c r="B482" s="5"/>
       <c r="C482" s="7"/>
@@ -41173,7 +41147,7 @@
       <c r="AG482" s="133"/>
       <c r="AH482" s="1"/>
     </row>
-    <row r="483" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A483" s="11"/>
       <c r="B483" s="5"/>
       <c r="C483" s="7"/>
@@ -41209,7 +41183,7 @@
       <c r="AG483" s="133"/>
       <c r="AH483" s="1"/>
     </row>
-    <row r="484" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A484" s="11"/>
       <c r="B484" s="5"/>
       <c r="C484" s="7"/>
@@ -41245,7 +41219,7 @@
       <c r="AG484" s="133"/>
       <c r="AH484" s="1"/>
     </row>
-    <row r="485" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A485" s="11"/>
       <c r="B485" s="5"/>
       <c r="C485" s="7"/>
@@ -41281,7 +41255,7 @@
       <c r="AG485" s="133"/>
       <c r="AH485" s="1"/>
     </row>
-    <row r="486" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A486" s="11"/>
       <c r="B486" s="5"/>
       <c r="C486" s="7"/>
@@ -41317,7 +41291,7 @@
       <c r="AG486" s="133"/>
       <c r="AH486" s="1"/>
     </row>
-    <row r="487" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A487" s="11"/>
       <c r="B487" s="5"/>
       <c r="C487" s="7"/>
@@ -41353,7 +41327,7 @@
       <c r="AG487" s="133"/>
       <c r="AH487" s="1"/>
     </row>
-    <row r="488" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A488" s="11"/>
       <c r="B488" s="5"/>
       <c r="C488" s="7"/>
@@ -41389,7 +41363,7 @@
       <c r="AG488" s="133"/>
       <c r="AH488" s="1"/>
     </row>
-    <row r="489" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A489" s="11"/>
       <c r="B489" s="5"/>
       <c r="C489" s="7"/>
@@ -41425,7 +41399,7 @@
       <c r="AG489" s="133"/>
       <c r="AH489" s="1"/>
     </row>
-    <row r="490" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A490" s="11"/>
       <c r="B490" s="5"/>
       <c r="C490" s="7"/>
@@ -41461,7 +41435,7 @@
       <c r="AG490" s="133"/>
       <c r="AH490" s="1"/>
     </row>
-    <row r="491" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A491" s="11"/>
       <c r="B491" s="5"/>
       <c r="C491" s="7"/>
@@ -41497,7 +41471,7 @@
       <c r="AG491" s="133"/>
       <c r="AH491" s="1"/>
     </row>
-    <row r="492" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A492" s="11"/>
       <c r="B492" s="5"/>
       <c r="C492" s="7"/>
@@ -41533,7 +41507,7 @@
       <c r="AG492" s="133"/>
       <c r="AH492" s="1"/>
     </row>
-    <row r="493" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A493" s="11"/>
       <c r="B493" s="5"/>
       <c r="C493" s="7"/>
@@ -41569,7 +41543,7 @@
       <c r="AG493" s="133"/>
       <c r="AH493" s="1"/>
     </row>
-    <row r="494" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A494" s="11"/>
       <c r="B494" s="5"/>
       <c r="C494" s="7"/>
@@ -41605,7 +41579,7 @@
       <c r="AG494" s="133"/>
       <c r="AH494" s="1"/>
     </row>
-    <row r="495" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A495" s="11"/>
       <c r="B495" s="5"/>
       <c r="C495" s="7"/>
@@ -41641,7 +41615,7 @@
       <c r="AG495" s="133"/>
       <c r="AH495" s="1"/>
     </row>
-    <row r="496" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A496" s="11"/>
       <c r="B496" s="5"/>
       <c r="C496" s="7"/>
@@ -41677,7 +41651,7 @@
       <c r="AG496" s="133"/>
       <c r="AH496" s="1"/>
     </row>
-    <row r="497" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A497" s="11"/>
       <c r="B497" s="5"/>
       <c r="C497" s="7"/>
@@ -41713,7 +41687,7 @@
       <c r="AG497" s="133"/>
       <c r="AH497" s="1"/>
     </row>
-    <row r="498" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A498" s="11"/>
       <c r="B498" s="5"/>
       <c r="C498" s="7"/>
@@ -41749,7 +41723,7 @@
       <c r="AG498" s="133"/>
       <c r="AH498" s="1"/>
     </row>
-    <row r="499" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A499" s="11"/>
       <c r="B499" s="5"/>
       <c r="C499" s="7"/>
@@ -41785,7 +41759,7 @@
       <c r="AG499" s="133"/>
       <c r="AH499" s="1"/>
     </row>
-    <row r="500" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A500" s="11"/>
       <c r="B500" s="5"/>
       <c r="C500" s="7"/>
@@ -41821,7 +41795,7 @@
       <c r="AG500" s="133"/>
       <c r="AH500" s="1"/>
     </row>
-    <row r="501" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A501" s="11"/>
       <c r="B501" s="5"/>
       <c r="C501" s="7"/>
@@ -41857,7 +41831,7 @@
       <c r="AG501" s="133"/>
       <c r="AH501" s="1"/>
     </row>
-    <row r="502" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A502" s="11"/>
       <c r="B502" s="5"/>
       <c r="C502" s="7"/>
@@ -41893,7 +41867,7 @@
       <c r="AG502" s="133"/>
       <c r="AH502" s="1"/>
     </row>
-    <row r="503" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A503" s="11"/>
       <c r="B503" s="5"/>
       <c r="C503" s="7"/>
@@ -41929,7 +41903,7 @@
       <c r="AG503" s="133"/>
       <c r="AH503" s="1"/>
     </row>
-    <row r="504" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A504" s="11"/>
       <c r="B504" s="5"/>
       <c r="C504" s="7"/>
@@ -41965,7 +41939,7 @@
       <c r="AG504" s="133"/>
       <c r="AH504" s="1"/>
     </row>
-    <row r="505" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A505" s="11"/>
       <c r="B505" s="5"/>
       <c r="C505" s="7"/>
@@ -42001,7 +41975,7 @@
       <c r="AG505" s="133"/>
       <c r="AH505" s="1"/>
     </row>
-    <row r="506" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A506" s="11"/>
       <c r="B506" s="5"/>
       <c r="C506" s="7"/>
@@ -42037,7 +42011,7 @@
       <c r="AG506" s="133"/>
       <c r="AH506" s="1"/>
     </row>
-    <row r="507" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A507" s="11"/>
       <c r="B507" s="5"/>
       <c r="C507" s="7"/>
@@ -42073,7 +42047,7 @@
       <c r="AG507" s="133"/>
       <c r="AH507" s="1"/>
     </row>
-    <row r="508" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A508" s="11"/>
       <c r="B508" s="5"/>
       <c r="C508" s="7"/>
@@ -42109,7 +42083,7 @@
       <c r="AG508" s="133"/>
       <c r="AH508" s="1"/>
     </row>
-    <row r="509" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A509" s="11"/>
       <c r="B509" s="5"/>
       <c r="C509" s="7"/>
@@ -42145,7 +42119,7 @@
       <c r="AG509" s="133"/>
       <c r="AH509" s="1"/>
     </row>
-    <row r="510" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A510" s="11"/>
       <c r="B510" s="5"/>
       <c r="C510" s="7"/>
@@ -42181,7 +42155,7 @@
       <c r="AG510" s="133"/>
       <c r="AH510" s="1"/>
     </row>
-    <row r="511" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A511" s="11"/>
       <c r="B511" s="5"/>
       <c r="C511" s="7"/>
@@ -42217,7 +42191,7 @@
       <c r="AG511" s="133"/>
       <c r="AH511" s="1"/>
     </row>
-    <row r="512" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A512" s="11"/>
       <c r="B512" s="5"/>
       <c r="C512" s="7"/>
@@ -42253,7 +42227,7 @@
       <c r="AG512" s="133"/>
       <c r="AH512" s="1"/>
     </row>
-    <row r="513" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A513" s="11"/>
       <c r="B513" s="5"/>
       <c r="C513" s="7"/>
@@ -42289,7 +42263,7 @@
       <c r="AG513" s="133"/>
       <c r="AH513" s="1"/>
     </row>
-    <row r="514" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A514" s="11"/>
       <c r="B514" s="5"/>
       <c r="C514" s="7"/>
@@ -42325,7 +42299,7 @@
       <c r="AG514" s="133"/>
       <c r="AH514" s="1"/>
     </row>
-    <row r="515" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A515" s="11"/>
       <c r="B515" s="5"/>
       <c r="C515" s="7"/>
@@ -42361,7 +42335,7 @@
       <c r="AG515" s="133"/>
       <c r="AH515" s="1"/>
     </row>
-    <row r="516" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A516" s="11"/>
       <c r="B516" s="5"/>
       <c r="C516" s="7"/>
@@ -42397,7 +42371,7 @@
       <c r="AG516" s="133"/>
       <c r="AH516" s="1"/>
     </row>
-    <row r="517" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A517" s="11"/>
       <c r="B517" s="5"/>
       <c r="C517" s="7"/>
@@ -42433,7 +42407,7 @@
       <c r="AG517" s="133"/>
       <c r="AH517" s="1"/>
     </row>
-    <row r="518" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A518" s="11"/>
       <c r="B518" s="5"/>
       <c r="C518" s="7"/>
@@ -42469,7 +42443,7 @@
       <c r="AG518" s="133"/>
       <c r="AH518" s="1"/>
     </row>
-    <row r="519" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A519" s="11"/>
       <c r="B519" s="5"/>
       <c r="C519" s="7"/>
@@ -42505,7 +42479,7 @@
       <c r="AG519" s="133"/>
       <c r="AH519" s="1"/>
     </row>
-    <row r="520" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A520" s="11"/>
       <c r="B520" s="5"/>
       <c r="C520" s="7"/>
@@ -42541,7 +42515,7 @@
       <c r="AG520" s="133"/>
       <c r="AH520" s="1"/>
     </row>
-    <row r="521" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A521" s="11"/>
       <c r="B521" s="5"/>
       <c r="C521" s="7"/>
@@ -42577,7 +42551,7 @@
       <c r="AG521" s="133"/>
       <c r="AH521" s="1"/>
     </row>
-    <row r="522" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A522" s="11"/>
       <c r="B522" s="5"/>
       <c r="C522" s="7"/>
@@ -42613,7 +42587,7 @@
       <c r="AG522" s="133"/>
       <c r="AH522" s="1"/>
     </row>
-    <row r="523" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A523" s="11"/>
       <c r="B523" s="5"/>
       <c r="C523" s="7"/>
@@ -42649,7 +42623,7 @@
       <c r="AG523" s="133"/>
       <c r="AH523" s="1"/>
     </row>
-    <row r="524" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A524" s="11"/>
       <c r="B524" s="5"/>
       <c r="C524" s="7"/>
@@ -42685,7 +42659,7 @@
       <c r="AG524" s="133"/>
       <c r="AH524" s="1"/>
     </row>
-    <row r="525" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A525" s="11"/>
       <c r="B525" s="5"/>
       <c r="C525" s="7"/>
@@ -42721,7 +42695,7 @@
       <c r="AG525" s="133"/>
       <c r="AH525" s="1"/>
     </row>
-    <row r="526" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A526" s="11"/>
       <c r="B526" s="5"/>
       <c r="C526" s="7"/>
@@ -42757,7 +42731,7 @@
       <c r="AG526" s="133"/>
       <c r="AH526" s="1"/>
     </row>
-    <row r="527" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A527" s="11"/>
       <c r="B527" s="5"/>
       <c r="C527" s="7"/>
@@ -42793,7 +42767,7 @@
       <c r="AG527" s="133"/>
       <c r="AH527" s="1"/>
     </row>
-    <row r="528" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A528" s="11"/>
       <c r="B528" s="5"/>
       <c r="C528" s="7"/>
@@ -42829,7 +42803,7 @@
       <c r="AG528" s="133"/>
       <c r="AH528" s="1"/>
     </row>
-    <row r="529" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A529" s="11"/>
       <c r="B529" s="5"/>
       <c r="C529" s="7"/>
@@ -42865,7 +42839,7 @@
       <c r="AG529" s="133"/>
       <c r="AH529" s="1"/>
     </row>
-    <row r="530" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A530" s="11"/>
       <c r="B530" s="5"/>
       <c r="C530" s="7"/>
@@ -42901,7 +42875,7 @@
       <c r="AG530" s="133"/>
       <c r="AH530" s="1"/>
     </row>
-    <row r="531" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A531" s="11"/>
       <c r="B531" s="5"/>
       <c r="C531" s="7"/>
@@ -42937,7 +42911,7 @@
       <c r="AG531" s="133"/>
       <c r="AH531" s="1"/>
     </row>
-    <row r="532" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A532" s="11"/>
       <c r="B532" s="5"/>
       <c r="C532" s="7"/>
@@ -42973,7 +42947,7 @@
       <c r="AG532" s="133"/>
       <c r="AH532" s="1"/>
     </row>
-    <row r="533" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A533" s="11"/>
       <c r="B533" s="5"/>
       <c r="C533" s="7"/>
@@ -43009,7 +42983,7 @@
       <c r="AG533" s="133"/>
       <c r="AH533" s="1"/>
     </row>
-    <row r="534" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A534" s="11"/>
       <c r="B534" s="5"/>
       <c r="C534" s="7"/>
@@ -43045,7 +43019,7 @@
       <c r="AG534" s="133"/>
       <c r="AH534" s="1"/>
     </row>
-    <row r="535" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A535" s="11"/>
       <c r="B535" s="5"/>
       <c r="C535" s="7"/>
@@ -43081,7 +43055,7 @@
       <c r="AG535" s="133"/>
       <c r="AH535" s="1"/>
     </row>
-    <row r="536" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A536" s="11"/>
       <c r="B536" s="5"/>
       <c r="C536" s="7"/>
@@ -43117,7 +43091,7 @@
       <c r="AG536" s="133"/>
       <c r="AH536" s="1"/>
     </row>
-    <row r="537" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A537" s="11"/>
       <c r="B537" s="5"/>
       <c r="C537" s="7"/>
@@ -43153,7 +43127,7 @@
       <c r="AG537" s="133"/>
       <c r="AH537" s="1"/>
     </row>
-    <row r="538" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A538" s="11"/>
       <c r="B538" s="5"/>
       <c r="C538" s="7"/>
@@ -43189,7 +43163,7 @@
       <c r="AG538" s="133"/>
       <c r="AH538" s="1"/>
     </row>
-    <row r="539" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A539" s="11"/>
       <c r="B539" s="5"/>
       <c r="C539" s="7"/>
@@ -43225,7 +43199,7 @@
       <c r="AG539" s="133"/>
       <c r="AH539" s="1"/>
     </row>
-    <row r="540" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A540" s="11"/>
       <c r="B540" s="5"/>
       <c r="C540" s="7"/>
@@ -43261,7 +43235,7 @@
       <c r="AG540" s="133"/>
       <c r="AH540" s="1"/>
     </row>
-    <row r="541" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A541" s="11"/>
       <c r="B541" s="5"/>
       <c r="C541" s="7"/>
@@ -43297,7 +43271,7 @@
       <c r="AG541" s="133"/>
       <c r="AH541" s="1"/>
     </row>
-    <row r="542" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A542" s="11"/>
       <c r="B542" s="5"/>
       <c r="C542" s="7"/>
@@ -43333,7 +43307,7 @@
       <c r="AG542" s="133"/>
       <c r="AH542" s="1"/>
     </row>
-    <row r="543" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A543" s="11"/>
       <c r="B543" s="5"/>
       <c r="C543" s="7"/>
@@ -43369,7 +43343,7 @@
       <c r="AG543" s="133"/>
       <c r="AH543" s="1"/>
     </row>
-    <row r="544" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A544" s="11"/>
       <c r="B544" s="5"/>
       <c r="C544" s="7"/>
@@ -43405,7 +43379,7 @@
       <c r="AG544" s="133"/>
       <c r="AH544" s="1"/>
     </row>
-    <row r="545" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A545" s="11"/>
       <c r="B545" s="5"/>
       <c r="C545" s="7"/>
@@ -43441,7 +43415,7 @@
       <c r="AG545" s="133"/>
       <c r="AH545" s="1"/>
     </row>
-    <row r="546" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A546" s="11"/>
       <c r="B546" s="5"/>
       <c r="C546" s="7"/>
@@ -43477,7 +43451,7 @@
       <c r="AG546" s="133"/>
       <c r="AH546" s="1"/>
     </row>
-    <row r="547" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A547" s="11"/>
       <c r="B547" s="5"/>
       <c r="C547" s="7"/>
@@ -43513,7 +43487,7 @@
       <c r="AG547" s="133"/>
       <c r="AH547" s="1"/>
     </row>
-    <row r="548" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A548" s="11"/>
       <c r="B548" s="5"/>
       <c r="C548" s="7"/>
@@ -43549,7 +43523,7 @@
       <c r="AG548" s="133"/>
       <c r="AH548" s="1"/>
     </row>
-    <row r="549" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A549" s="11"/>
       <c r="B549" s="5"/>
       <c r="C549" s="7"/>
@@ -43585,7 +43559,7 @@
       <c r="AG549" s="133"/>
       <c r="AH549" s="1"/>
     </row>
-    <row r="550" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A550" s="11"/>
       <c r="B550" s="5"/>
       <c r="C550" s="7"/>
@@ -43621,7 +43595,7 @@
       <c r="AG550" s="133"/>
       <c r="AH550" s="1"/>
     </row>
-    <row r="551" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A551" s="11"/>
       <c r="B551" s="5"/>
       <c r="C551" s="7"/>
@@ -43657,7 +43631,7 @@
       <c r="AG551" s="133"/>
       <c r="AH551" s="1"/>
     </row>
-    <row r="552" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A552" s="11"/>
       <c r="B552" s="5"/>
       <c r="C552" s="7"/>
@@ -43693,7 +43667,7 @@
       <c r="AG552" s="133"/>
       <c r="AH552" s="1"/>
     </row>
-    <row r="553" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A553" s="11"/>
       <c r="B553" s="5"/>
       <c r="C553" s="7"/>
@@ -43729,7 +43703,7 @@
       <c r="AG553" s="133"/>
       <c r="AH553" s="1"/>
     </row>
-    <row r="554" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A554" s="11"/>
       <c r="B554" s="5"/>
       <c r="C554" s="7"/>
@@ -43765,7 +43739,7 @@
       <c r="AG554" s="133"/>
       <c r="AH554" s="1"/>
     </row>
-    <row r="555" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A555" s="11"/>
       <c r="B555" s="5"/>
       <c r="C555" s="7"/>
@@ -43801,7 +43775,7 @@
       <c r="AG555" s="133"/>
       <c r="AH555" s="1"/>
     </row>
-    <row r="556" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A556" s="11"/>
       <c r="B556" s="5"/>
       <c r="C556" s="7"/>
@@ -43837,7 +43811,7 @@
       <c r="AG556" s="133"/>
       <c r="AH556" s="1"/>
     </row>
-    <row r="557" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A557" s="11"/>
       <c r="B557" s="5"/>
       <c r="C557" s="7"/>
@@ -43873,7 +43847,7 @@
       <c r="AG557" s="133"/>
       <c r="AH557" s="1"/>
     </row>
-    <row r="558" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A558" s="11"/>
       <c r="B558" s="5"/>
       <c r="C558" s="7"/>
@@ -43909,7 +43883,7 @@
       <c r="AG558" s="133"/>
       <c r="AH558" s="1"/>
     </row>
-    <row r="559" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A559" s="11"/>
       <c r="B559" s="5"/>
       <c r="C559" s="7"/>
@@ -43945,7 +43919,7 @@
       <c r="AG559" s="133"/>
       <c r="AH559" s="1"/>
     </row>
-    <row r="560" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A560" s="11"/>
       <c r="B560" s="5"/>
       <c r="C560" s="7"/>
@@ -43981,7 +43955,7 @@
       <c r="AG560" s="133"/>
       <c r="AH560" s="1"/>
     </row>
-    <row r="561" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A561" s="11"/>
       <c r="B561" s="5"/>
       <c r="C561" s="7"/>
@@ -44017,7 +43991,7 @@
       <c r="AG561" s="133"/>
       <c r="AH561" s="1"/>
     </row>
-    <row r="562" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A562" s="11"/>
       <c r="B562" s="5"/>
       <c r="C562" s="7"/>
@@ -44053,7 +44027,7 @@
       <c r="AG562" s="133"/>
       <c r="AH562" s="1"/>
     </row>
-    <row r="563" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A563" s="11"/>
       <c r="B563" s="5"/>
       <c r="C563" s="7"/>
@@ -44089,7 +44063,7 @@
       <c r="AG563" s="133"/>
       <c r="AH563" s="1"/>
     </row>
-    <row r="564" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A564" s="11"/>
       <c r="B564" s="5"/>
       <c r="C564" s="7"/>
@@ -44125,7 +44099,7 @@
       <c r="AG564" s="133"/>
       <c r="AH564" s="1"/>
     </row>
-    <row r="565" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A565" s="11"/>
       <c r="B565" s="5"/>
       <c r="C565" s="7"/>
@@ -44161,7 +44135,7 @@
       <c r="AG565" s="133"/>
       <c r="AH565" s="1"/>
     </row>
-    <row r="566" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A566" s="11"/>
       <c r="B566" s="5"/>
       <c r="C566" s="7"/>
@@ -44197,7 +44171,7 @@
       <c r="AG566" s="133"/>
       <c r="AH566" s="1"/>
     </row>
-    <row r="567" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A567" s="11"/>
       <c r="B567" s="5"/>
       <c r="C567" s="7"/>
@@ -44233,7 +44207,7 @@
       <c r="AG567" s="133"/>
       <c r="AH567" s="1"/>
     </row>
-    <row r="568" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A568" s="11"/>
       <c r="B568" s="5"/>
       <c r="C568" s="7"/>
@@ -44269,7 +44243,7 @@
       <c r="AG568" s="133"/>
       <c r="AH568" s="1"/>
     </row>
-    <row r="569" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A569" s="11"/>
       <c r="B569" s="5"/>
       <c r="C569" s="7"/>
@@ -44305,7 +44279,7 @@
       <c r="AG569" s="133"/>
       <c r="AH569" s="1"/>
     </row>
-    <row r="570" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A570" s="11"/>
       <c r="B570" s="5"/>
       <c r="C570" s="7"/>
@@ -44341,7 +44315,7 @@
       <c r="AG570" s="133"/>
       <c r="AH570" s="1"/>
     </row>
-    <row r="571" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A571" s="11"/>
       <c r="B571" s="5"/>
       <c r="C571" s="7"/>
@@ -44377,7 +44351,7 @@
       <c r="AG571" s="133"/>
       <c r="AH571" s="1"/>
     </row>
-    <row r="572" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A572" s="11"/>
       <c r="B572" s="5"/>
       <c r="C572" s="7"/>
@@ -44413,7 +44387,7 @@
       <c r="AG572" s="133"/>
       <c r="AH572" s="1"/>
     </row>
-    <row r="573" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A573" s="11"/>
       <c r="B573" s="5"/>
       <c r="C573" s="7"/>
@@ -44449,7 +44423,7 @@
       <c r="AG573" s="133"/>
       <c r="AH573" s="1"/>
     </row>
-    <row r="574" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A574" s="11"/>
       <c r="B574" s="5"/>
       <c r="C574" s="7"/>
@@ -44485,7 +44459,7 @@
       <c r="AG574" s="133"/>
       <c r="AH574" s="1"/>
     </row>
-    <row r="575" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A575" s="11"/>
       <c r="B575" s="5"/>
       <c r="C575" s="7"/>
@@ -44521,7 +44495,7 @@
       <c r="AG575" s="133"/>
       <c r="AH575" s="1"/>
     </row>
-    <row r="576" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A576" s="11"/>
       <c r="B576" s="5"/>
       <c r="C576" s="7"/>
@@ -44557,7 +44531,7 @@
       <c r="AG576" s="133"/>
       <c r="AH576" s="1"/>
     </row>
-    <row r="577" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A577" s="11"/>
       <c r="B577" s="5"/>
       <c r="C577" s="7"/>
@@ -44593,7 +44567,7 @@
       <c r="AG577" s="133"/>
       <c r="AH577" s="1"/>
     </row>
-    <row r="578" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A578" s="11"/>
       <c r="B578" s="5"/>
       <c r="C578" s="7"/>
@@ -44629,7 +44603,7 @@
       <c r="AG578" s="133"/>
       <c r="AH578" s="1"/>
     </row>
-    <row r="579" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A579" s="11"/>
       <c r="B579" s="5"/>
       <c r="C579" s="7"/>
@@ -44665,7 +44639,7 @@
       <c r="AG579" s="133"/>
       <c r="AH579" s="1"/>
     </row>
-    <row r="580" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A580" s="11"/>
       <c r="B580" s="5"/>
       <c r="C580" s="7"/>
@@ -44701,7 +44675,7 @@
       <c r="AG580" s="133"/>
       <c r="AH580" s="1"/>
     </row>
-    <row r="581" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A581" s="11"/>
       <c r="B581" s="5"/>
       <c r="C581" s="7"/>
@@ -44737,7 +44711,7 @@
       <c r="AG581" s="133"/>
       <c r="AH581" s="1"/>
     </row>
-    <row r="582" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A582" s="11"/>
       <c r="B582" s="5"/>
       <c r="C582" s="7"/>
@@ -44773,7 +44747,7 @@
       <c r="AG582" s="133"/>
       <c r="AH582" s="1"/>
     </row>
-    <row r="583" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A583" s="11"/>
       <c r="B583" s="5"/>
       <c r="C583" s="7"/>
@@ -44809,7 +44783,7 @@
       <c r="AG583" s="133"/>
       <c r="AH583" s="1"/>
     </row>
-    <row r="584" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A584" s="11"/>
       <c r="B584" s="5"/>
       <c r="C584" s="7"/>
@@ -44845,7 +44819,7 @@
       <c r="AG584" s="133"/>
       <c r="AH584" s="1"/>
     </row>
-    <row r="585" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A585" s="11"/>
       <c r="B585" s="5"/>
       <c r="C585" s="7"/>
@@ -44881,7 +44855,7 @@
       <c r="AG585" s="133"/>
       <c r="AH585" s="1"/>
     </row>
-    <row r="586" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A586" s="11"/>
       <c r="B586" s="5"/>
       <c r="C586" s="7"/>
@@ -44917,7 +44891,7 @@
       <c r="AG586" s="133"/>
       <c r="AH586" s="1"/>
     </row>
-    <row r="587" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A587" s="11"/>
       <c r="B587" s="5"/>
       <c r="C587" s="7"/>
@@ -44953,7 +44927,7 @@
       <c r="AG587" s="133"/>
       <c r="AH587" s="1"/>
     </row>
-    <row r="588" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A588" s="11"/>
       <c r="B588" s="5"/>
       <c r="C588" s="7"/>
@@ -44989,7 +44963,7 @@
       <c r="AG588" s="133"/>
       <c r="AH588" s="1"/>
     </row>
-    <row r="589" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A589" s="11"/>
       <c r="B589" s="5"/>
       <c r="C589" s="7"/>
@@ -45025,7 +44999,7 @@
       <c r="AG589" s="133"/>
       <c r="AH589" s="1"/>
     </row>
-    <row r="590" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A590" s="11"/>
       <c r="B590" s="5"/>
       <c r="C590" s="7"/>
@@ -45061,7 +45035,7 @@
       <c r="AG590" s="133"/>
       <c r="AH590" s="1"/>
     </row>
-    <row r="591" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A591" s="11"/>
       <c r="B591" s="5"/>
       <c r="C591" s="7"/>
@@ -45118,17 +45092,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AG49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="34.5546875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="93" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" ht="87.6" x14ac:dyDescent="0.3">
       <c r="A1" s="54" t="s">
         <v>10</v>
       </c>
@@ -45229,9 +45203,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B2" s="144">
         <v>45227.5</v>
@@ -45323,9 +45297,9 @@
         <v>2.6881606444829211E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" s="144">
         <v>45227.541666666664</v>
@@ -45407,9 +45381,9 @@
       </c>
       <c r="AF3" s="50"/>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B4" s="144">
         <v>45227.583333333336</v>
@@ -45491,9 +45465,9 @@
       </c>
       <c r="AF4" s="50"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="144">
         <v>45227.625</v>
@@ -45587,9 +45561,9 @@
         <v>0.49772258544882969</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="144">
         <v>45227.666666666664</v>
@@ -45684,9 +45658,9 @@
         <v>0.53235578486370805</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B7" s="144">
         <v>45227.708333333336</v>
@@ -45781,9 +45755,9 @@
         <v>0.69969541885692543</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B8" s="144">
         <v>45227.75</v>
@@ -45878,9 +45852,9 @@
         <v>0.80627206543394048</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B9" s="144">
         <v>45227.916666666664</v>
@@ -45977,9 +45951,9 @@
         <v>0.72785219877856322</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" s="144">
         <v>45228</v>
@@ -46076,9 +46050,9 @@
         <v>0.6610891455563892</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B11" s="144">
         <v>45228.041666666664</v>
@@ -46175,9 +46149,9 @@
         <v>0.73211745032577713</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" s="144">
         <v>45228.083333333336</v>
@@ -46272,9 +46246,9 @@
         <v>0.7576784106322958</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B13" s="144">
         <v>45228.166666666664</v>
@@ -46369,9 +46343,9 @@
         <v>0.62742735901054902</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B14" s="144">
         <v>45228.208333333336</v>
@@ -46466,9 +46440,9 @@
         <v>0.67382490116137406</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" s="144">
         <v>45228.25</v>
@@ -46563,9 +46537,9 @@
         <v>0.80595593083306405</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B16" s="144">
         <v>45228.291666666664</v>
@@ -46660,9 +46634,9 @@
         <v>0.72104897471812024</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B17" s="144">
         <v>45228.333333333336</v>
@@ -46757,9 +46731,9 @@
         <v>0.67205803822228538</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B18" s="144">
         <v>45228.375</v>
@@ -46854,9 +46828,9 @@
         <v>0.75307326582051615</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B19" s="144">
         <v>45228.416666666664</v>
@@ -46951,9 +46925,9 @@
         <v>0.77120821235748505</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B20" s="144">
         <v>45228.458333333336</v>
@@ -47048,9 +47022,9 @@
         <v>0.78730524139634539</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21" s="144">
         <v>45228.5</v>
@@ -47145,9 +47119,9 @@
         <v>0.84471302863388231</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B22" s="144">
         <v>45228.541666666664</v>
@@ -47242,9 +47216,9 @@
         <v>0.75511754456093294</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B23" s="144">
         <v>45228.583333333336</v>
@@ -47339,9 +47313,9 @@
         <v>0.72772987462746463</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B24" s="144">
         <v>45228.625</v>
@@ -47436,9 +47410,9 @@
         <v>0.75546103535325637</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B25" s="144">
         <v>45228.666666666664</v>
@@ -47533,9 +47507,9 @@
         <v>0.82082757140439522</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B26" s="144">
         <v>45228.708333333336</v>
@@ -47630,9 +47604,9 @@
         <v>0.95885191432477701</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B27" s="144">
         <v>45228.75</v>
@@ -47726,9 +47700,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B28" s="144">
         <v>45228.791666666664</v>
@@ -47826,9 +47800,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B29" s="144">
         <v>45229.125</v>
@@ -47925,9 +47899,9 @@
         <v>0.79123046855460188</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30" s="144">
         <v>45229.208333333336</v>
@@ -48024,9 +47998,9 @@
         <v>0.64829587020913637</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B31" s="144">
         <v>45229.25</v>
@@ -48123,9 +48097,9 @@
         <v>0.72781698798682681</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B32" s="144">
         <v>45229.291666666664</v>
@@ -48222,9 +48196,9 @@
         <v>0.66551758082936574</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B33" s="144">
         <v>45229.375</v>
@@ -48321,9 +48295,9 @@
         <v>0.720309475535584</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B34" s="144">
         <v>45229.416666666664</v>
@@ -48420,9 +48394,9 @@
         <v>0.75599655429854073</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B35" s="144">
         <v>45229.458333333336</v>
@@ -48519,9 +48493,9 @@
         <v>0.752330220253694</v>
       </c>
     </row>
-    <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B36" s="144">
         <v>45229.5</v>
@@ -48618,9 +48592,9 @@
         <v>0.84988285193684199</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B37" s="144">
         <v>45229.541666666664</v>
@@ -48710,9 +48684,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B38" s="144">
         <v>45229.583333333336</v>
@@ -48797,9 +48771,9 @@
       </c>
       <c r="AF38" s="52"/>
     </row>
-    <row r="39" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B39" s="144">
         <v>45229.666666666664</v>
@@ -48896,9 +48870,9 @@
         <v>0.6331525968648497</v>
       </c>
     </row>
-    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B40" s="144">
         <v>45229.708333333336</v>
@@ -48983,9 +48957,9 @@
       </c>
       <c r="AF40" s="52"/>
     </row>
-    <row r="41" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B41" s="144">
         <v>45229.75</v>
@@ -49070,9 +49044,9 @@
       </c>
       <c r="AF41" s="52"/>
     </row>
-    <row r="42" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B42" s="144">
         <v>45229.791666666664</v>
@@ -49158,9 +49132,9 @@
       </c>
       <c r="AF42" s="52"/>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B43" s="144">
         <v>45229.958333333336</v>
@@ -49258,9 +49232,9 @@
         <v>0.85301919668743231</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B44" s="144">
         <v>45230</v>
@@ -49361,9 +49335,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B45" s="144">
         <v>45230.041666666664</v>
@@ -49461,9 +49435,9 @@
         <v>0.83087680801749564</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B46" s="144">
         <v>45230.125</v>
@@ -49555,9 +49529,9 @@
         <v>1.0734864901336429</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B47" s="144">
         <v>45230.166666666664</v>
@@ -49646,9 +49620,9 @@
         <v>0.82237907927696374</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B48" s="144">
         <v>45230.208333333336</v>
@@ -49738,9 +49712,9 @@
         <v>0.75883466729925508</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B49" s="144">
         <v>45230.25</v>
